--- a/example/schedule.xlsx
+++ b/example/schedule.xlsx
@@ -9,12 +9,13 @@
     <sheet name="2019-02" r:id="rId3" sheetId="1"/>
     <sheet name="doctors.stats" r:id="rId4" sheetId="2"/>
     <sheet name="opt_parms" r:id="rId5" sheetId="3"/>
+    <sheet name="warnings" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="170">
   <si>
     <t>01</t>
   </si>
@@ -127,15 +128,18 @@
     <t>Cottle</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -148,13 +152,13 @@
     <t>7</t>
   </si>
   <si>
-    <t>6</t>
+    <t>N2</t>
   </si>
   <si>
     <t>N1</t>
   </si>
   <si>
-    <t>N2</t>
+    <t>8</t>
   </si>
   <si>
     <t>4_2</t>
@@ -175,9 +179,6 @@
     <t>2019-02</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
     <t>ward</t>
   </si>
   <si>
@@ -199,7 +200,7 @@
     <t>long_day_hours</t>
   </si>
   <si>
-    <t>fill_days_beyond_weekhours</t>
+    <t>fill_all_days</t>
   </si>
   <si>
     <t>shifts_carryover</t>
@@ -253,9 +254,6 @@
     <t>soft_requests_denied</t>
   </si>
   <si>
-    <t>AA</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
@@ -296,6 +294,237 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>warnings</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>No more doctor found for 4, ward 4_2 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 7, ward 4_2 presence remains 1</t>
+  </si>
+  <si>
+    <t>No more doctor found for 6, ward 4_2 presence remains 1</t>
+  </si>
+  <si>
+    <t>No more doctor found for 8, ward 4_1 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 26, ward 4_1 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 11, ward 4_1 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 4, ward 12_2 presence remains 1</t>
+  </si>
+  <si>
+    <t>No more doctor found for 1, ward 12_2 presence remains 2</t>
+  </si>
+  <si>
+    <t>No more doctor found for 5, ward 12_2 presence remains 1</t>
+  </si>
+  <si>
+    <t>No more doctor found for 7, ward 12_2 presence remains 1</t>
+  </si>
+  <si>
+    <t>No more doctor found for 6, ward 12_2 presence remains 1</t>
+  </si>
+  <si>
+    <t>No more doctor found for 28, ward 12_2 presence remains 2</t>
+  </si>
+  <si>
+    <t>No more doctor found for 25, ward 12_2 presence remains 2</t>
+  </si>
+  <si>
+    <t>No more doctor found for 8, ward 12_2 presence remains 1</t>
+  </si>
+  <si>
+    <t>No more doctor found for 20, ward 12_2 presence remains 2</t>
+  </si>
+  <si>
+    <t>No more doctor found for 14, ward 4_3 presence remains 1</t>
+  </si>
+  <si>
+    <t>No more doctor found for 13, ward 4_3 presence remains 1</t>
+  </si>
+  <si>
+    <t>No more doctor found for 12, ward 4_3 presence remains 1</t>
+  </si>
+  <si>
+    <t>No more doctor found for 25, ward 4_3 presence remains 2</t>
+  </si>
+  <si>
+    <t>No more doctor found for 6, ward 4_3 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 8, ward 4_3 presence remains 2</t>
+  </si>
+  <si>
+    <t>No more doctor found for 22, ward 4_3 presence remains 1</t>
+  </si>
+  <si>
+    <t>No more doctor found for 7, ward 4_3 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 22, ward 6_3 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 18, ward 6_3 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 28, ward 6_3 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 25, ward 6_3 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 5, ward 6_3 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 14, ward 6_3 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 21, ward 6_3 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 26, ward 6_3 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 19, ward 6_3 presence remains 0</t>
+  </si>
+  <si>
+    <t>No more doctor found for 4, total presence remains 4</t>
+  </si>
+  <si>
+    <t>No more doctor found for 7, total presence remains 4</t>
+  </si>
+  <si>
+    <t>No more doctor found for 25, total presence remains 7</t>
+  </si>
+  <si>
+    <t>No more doctor found for 8, total presence remains 5</t>
+  </si>
+  <si>
+    <t>No more doctor found for 6, total presence remains 4</t>
+  </si>
+  <si>
+    <t>No more doctor found for 5, total presence remains 5</t>
+  </si>
+  <si>
+    <t>No more doctor found for 26, total presence remains 6</t>
+  </si>
+  <si>
+    <t>No more doctor found for 22, total presence remains 7</t>
+  </si>
+  <si>
+    <t>No more doctor found for 14, total presence remains 4</t>
+  </si>
+  <si>
+    <t>No more doctor found for 28, total presence remains 6</t>
+  </si>
+  <si>
+    <t>No more doctor found for 13, total presence remains 5</t>
+  </si>
+  <si>
+    <t>No more doctor found for 18, total presence remains 6</t>
+  </si>
+  <si>
+    <t>No more doctor found for 21, total presence remains 7</t>
+  </si>
+  <si>
+    <t>No more doctor found for 19, total presence remains 6</t>
+  </si>
+  <si>
+    <t>No more doctor found for 11, total presence remains 5</t>
+  </si>
+  <si>
+    <t>No more doctor found for 1, total presence remains 6</t>
+  </si>
+  <si>
+    <t>No more doctor found for 20, total presence remains 6</t>
+  </si>
+  <si>
+    <t>No more doctor found for 12, total presence remains 6</t>
   </si>
 </sst>
 </file>
@@ -611,7 +840,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.5" customWidth="true"/>
     <col min="2" max="2" width="4.5" customWidth="true"/>
     <col min="3" max="3" width="4.5" customWidth="true"/>
     <col min="4" max="4" width="4.5" customWidth="true"/>
@@ -642,9 +871,9 @@
     <col min="29" max="29" width="4.5" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.0" customHeight="true">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -731,7 +960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.0" customHeight="true">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -739,61 +968,61 @@
         <v>37</v>
       </c>
       <c r="C2" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="D2" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s" s="2">
+      <c r="P2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="T2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="U2" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="U2" t="s" s="4">
-        <v>39</v>
       </c>
       <c r="V2" t="s" s="2">
         <v>37</v>
@@ -802,25 +1031,25 @@
         <v>37</v>
       </c>
       <c r="X2" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="Y2" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="Z2" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA2" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="AB2" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="AA2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC2" t="s" s="6">
+      <c r="AC2" t="s" s="7">
         <v>45</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.0" customHeight="true">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -830,17 +1059,17 @@
       <c r="C3" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="D3" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>39</v>
+      <c r="D3" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="5">
         <v>38</v>
@@ -849,67 +1078,67 @@
         <v>39</v>
       </c>
       <c r="J3" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="N3" t="s" s="4">
+      <c r="L3" t="s" s="4">
         <v>39</v>
       </c>
+      <c r="M3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="O3" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q3" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X3" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="Z3" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="AA3" t="s" s="4">
+        <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -917,191 +1146,191 @@
         <v>39</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="O4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="Q4" t="s" s="5">
+      <c r="M4" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="R4" t="s" s="4">
+      <c r="S4" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="S4" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U4" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="V4" t="s" s="4">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="U4" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X4" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y4" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="s" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC4" t="s" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.0" customHeight="true">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="D5" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s" s="4">
+        <v>39</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s" s="5">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="7">
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="4">
         <v>39</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q5" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="S5" t="s" s="4">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X5" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="W5" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="Y5" t="s" s="4">
+      <c r="X5" t="s" s="4">
         <v>39</v>
       </c>
+      <c r="Y5" t="s" s="3">
+        <v>43</v>
+      </c>
       <c r="Z5" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB5" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>40</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC5" t="s" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s" s="4">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="F6" t="s" s="5">
         <v>38</v>
@@ -1109,11 +1338,11 @@
       <c r="G6" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>37</v>
+      <c r="H6" t="s" s="4">
+        <v>42</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s" s="5">
         <v>38</v>
@@ -1122,34 +1351,34 @@
         <v>39</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="N6" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V6" t="s" s="5">
         <v>38</v>
@@ -1158,119 +1387,119 @@
         <v>39</v>
       </c>
       <c r="X6" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y6" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="Z6" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="AA6" t="s" s="4">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P7" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="M7" t="s" s="4">
+      <c r="Q7" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="N7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s" s="5">
+      <c r="R7" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T7" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="P7" t="s" s="4">
+      <c r="U7" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="Q7" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="R7" t="s" s="5">
+      <c r="V7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X7" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="Y7" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="S7" t="s" s="4">
+      <c r="Z7" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="T7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X7" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="Y7" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="AA7" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
       <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s" s="5">
         <v>38</v>
@@ -1279,182 +1508,182 @@
         <v>39</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="G8" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O8" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q8" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R8" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="S8" t="s" s="5">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="S8" t="s" s="7">
+        <v>45</v>
       </c>
       <c r="T8" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="U8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>37</v>
+      <c r="U8" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="V8" t="s" s="4">
+        <v>39</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X8" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y8" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA8" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC8" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB8" t="s" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="AC8" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="O9" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="P9" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="Q9" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="R9" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="S9" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="T9" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="D9" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J9" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="K9" t="s" s="5">
+      <c r="U9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X9" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="L9" t="s" s="4">
+      <c r="Y9" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="N9" t="s" s="7">
+      <c r="Z9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA9" t="s" s="6">
         <v>46</v>
       </c>
-      <c r="O9" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="P9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Q9" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="R9" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T9" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W9" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="X9" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="Y9" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA9" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="AB9" t="s" s="4">
-        <v>39</v>
+      <c r="AB9" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" ht="15.0" customHeight="true">
       <c r="A10" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s" s="5">
         <v>38</v>
@@ -1463,10 +1692,10 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s" s="5">
         <v>38</v>
@@ -1475,69 +1704,69 @@
         <v>39</v>
       </c>
       <c r="K10" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="N10" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="O10" t="s" s="4">
+        <v>39</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q10" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R10" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y10" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.0</v>
+        <v>48</v>
+      </c>
+      <c r="B12" t="n" s="15">
+        <v>0.19999999999999996</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1552,11 +1781,11 @@
         <v>0.0</v>
       </c>
       <c r="G12" t="n" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="H12" t="n" s="13">
         <v>-0.6000000000000001</v>
       </c>
-      <c r="H12" t="n" s="13">
-        <v>-1.0</v>
-      </c>
       <c r="I12" t="n">
         <v>0.0</v>
       </c>
@@ -1569,61 +1798,61 @@
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
-      <c r="M12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.0</v>
+      <c r="M12" t="n" s="15">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="N12" t="n" s="15">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="15">
+        <v>0.6000000000000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R12" t="n">
         <v>0.0</v>
       </c>
       <c r="S12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.0</v>
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="T12" t="n" s="15">
+        <v>1.2</v>
       </c>
       <c r="U12" t="n" s="15">
-        <v>1.0</v>
+        <v>1.2</v>
       </c>
       <c r="V12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.0</v>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="W12" t="n" s="15">
+        <v>0.20000000000000018</v>
       </c>
       <c r="X12" t="n">
         <v>0.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="AA12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="AB12" t="n" s="15">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z12" t="n" s="17">
+        <v>2.2</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.0</v>
       </c>
       <c r="AC12" t="n" s="15">
         <v>1.0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.0" customHeight="true">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -1632,10 +1861,10 @@
         <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E13" t="n" s="13">
-        <v>-1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -1653,56 +1882,56 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="L13" t="n" s="13">
+        <v>-1.0</v>
       </c>
       <c r="M13" t="n">
         <v>0.0</v>
       </c>
-      <c r="N13" t="n" s="13">
+      <c r="N13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA13" t="n" s="13">
         <v>-1.0</v>
       </c>
-      <c r="O13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AB13" t="n">
         <v>0.0</v>
       </c>
@@ -1710,9 +1939,9 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.0" customHeight="true">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="n" s="13">
         <v>-1.0</v>
@@ -1727,7 +1956,7 @@
         <v>-1.6</v>
       </c>
       <c r="F14" t="n" s="13">
-        <v>-1.0</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="G14" t="n" s="13">
         <v>-1.0</v>
@@ -1742,7 +1971,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
@@ -1756,76 +1985,76 @@
       <c r="O14" t="n">
         <v>0.0</v>
       </c>
-      <c r="P14" t="n" s="13">
+      <c r="P14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U14" t="n" s="13">
         <v>-0.6000000000000001</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T14" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V14" t="n" s="13">
+      <c r="V14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z14" t="n" s="13">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="AA14" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC14" t="n" s="13">
         <v>-1.0</v>
       </c>
-      <c r="W14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB14" t="n" s="13">
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="13">
         <v>-1.0</v>
       </c>
-      <c r="AC14" t="n" s="13">
-        <v>-0.6000000000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0</v>
+      <c r="H15" t="n" s="13">
+        <v>-1.0</v>
       </c>
       <c r="I15" t="n" s="13">
-        <v>-0.7999999999999998</v>
+        <v>-1.0</v>
       </c>
       <c r="J15" t="n">
         <v>1.0</v>
@@ -1854,8 +2083,8 @@
       <c r="R15" t="n">
         <v>0.0</v>
       </c>
-      <c r="S15" t="n">
-        <v>0.0</v>
+      <c r="S15" t="n" s="15">
+        <v>1.0</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
@@ -1870,16 +2099,16 @@
         <v>-1.0</v>
       </c>
       <c r="X15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y15" t="n">
         <v>0.0</v>
       </c>
       <c r="Z15" t="n" s="13">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="AA15" t="n" s="13">
-        <v>-0.8</v>
+        <v>-1.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.0</v>
       </c>
       <c r="AB15" t="n">
         <v>0.0</v>
@@ -1888,9 +2117,9 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.0" customHeight="true">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -1928,11 +2157,11 @@
       <c r="M16" t="n">
         <v>0.0</v>
       </c>
-      <c r="N16" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.0</v>
+      <c r="N16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="13">
+        <v>-1.0</v>
       </c>
       <c r="P16" t="n">
         <v>0.0</v>
@@ -1977,12 +2206,12 @@
         <v>-1.0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.0" customHeight="true">
       <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="n" s="27">
-        <v>0.0</v>
+        <v>43</v>
+      </c>
+      <c r="B17" t="n" s="23">
+        <v>0.19999999999999996</v>
       </c>
       <c r="C17" t="n" s="27">
         <v>1.0</v>
@@ -1991,79 +2220,79 @@
         <v>1.0</v>
       </c>
       <c r="E17" t="n" s="20">
-        <v>-3.6</v>
+        <v>-2.6</v>
       </c>
       <c r="F17" t="n" s="21">
+        <v>-1.6</v>
+      </c>
+      <c r="G17" t="n" s="21">
         <v>-2.0</v>
       </c>
-      <c r="G17" t="n" s="22">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="H17" t="n" s="21">
+      <c r="H17" t="n" s="20">
+        <v>-2.6</v>
+      </c>
+      <c r="I17" t="n" s="20">
+        <v>-2.6</v>
+      </c>
+      <c r="J17" t="n" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="K17" t="n" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="L17" t="n" s="22">
+        <v>-1.0</v>
+      </c>
+      <c r="M17" t="n" s="22">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="N17" t="n" s="22">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="O17" t="n" s="21">
         <v>-2.0</v>
       </c>
-      <c r="I17" t="n" s="20">
-        <v>-2.4</v>
-      </c>
-      <c r="J17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="K17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="L17" t="n" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="M17" t="n" s="22">
+      <c r="P17" t="n" s="23">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Q17" t="n" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="R17" t="n" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="S17" t="n" s="23">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="T17" t="n" s="23">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="U17" t="n" s="23">
+        <v>0.5999999999999999</v>
+      </c>
+      <c r="V17" t="n" s="22">
+        <v>-0.8</v>
+      </c>
+      <c r="W17" t="n" s="21">
+        <v>-1.7999999999999998</v>
+      </c>
+      <c r="X17" t="n" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="Y17" t="n" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="Z17" t="n" s="22">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AA17" t="n" s="22">
         <v>-1.0</v>
       </c>
-      <c r="N17" t="n" s="22">
+      <c r="AB17" t="n" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AC17" t="n" s="22">
         <v>-1.0</v>
-      </c>
-      <c r="O17" t="n" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="P17" t="n" s="22">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="Q17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="R17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="S17" t="n" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="T17" t="n" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="U17" t="n" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="V17" t="n" s="22">
-        <v>-1.0</v>
-      </c>
-      <c r="W17" t="n" s="21">
-        <v>-2.0</v>
-      </c>
-      <c r="X17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Y17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Z17" t="n" s="22">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="AA17" t="n" s="22">
-        <v>-0.8</v>
-      </c>
-      <c r="AB17" t="n" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AC17" t="n" s="22">
-        <v>-0.6000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2082,81 +2311,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2165,81 +2391,78 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E2" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>44.0</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" t="s">
-        <v>81</v>
+      <c r="G2" t="n">
+        <v>1.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I2" t="n">
         <v>6.0</v>
       </c>
-      <c r="J2" t="s">
-        <v>81</v>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.4166666666666665</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08333333333333348</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="L2" t="n">
-        <v>0.16666666666666663</v>
+        <v>160.0</v>
       </c>
       <c r="M2" t="n">
-        <v>160.0</v>
+        <v>120.0</v>
       </c>
       <c r="N2" t="n">
-        <v>120.0</v>
+        <v>132.0</v>
       </c>
       <c r="O2" t="n">
-        <v>132.0</v>
+        <v>121.5</v>
       </c>
       <c r="P2" t="n">
-        <v>125.0</v>
+        <v>40.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.666666666666664</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="R2" t="n">
-        <v>2.9166666666666665</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8333333333333334</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="U2" t="n">
         <v>3.0</v>
       </c>
       <c r="V2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2248,58 +2471,58 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
+      <c r="G3" t="n">
+        <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I3" t="n">
         <v>7.0</v>
       </c>
-      <c r="J3" t="s">
-        <v>80</v>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.11111111111111116</v>
       </c>
       <c r="K3" t="n">
-        <v>0.11111111111111116</v>
+        <v>-0.11111111111111116</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.11111111111111116</v>
+        <v>160.0</v>
       </c>
       <c r="M3" t="n">
         <v>160.0</v>
       </c>
       <c r="N3" t="n">
-        <v>160.0</v>
+        <v>176.0</v>
       </c>
       <c r="O3" t="n">
-        <v>176.0</v>
+        <v>170.0</v>
       </c>
       <c r="P3" t="n">
-        <v>170.0</v>
+        <v>42.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>42.5</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="R3" t="n">
-        <v>3.888888888888889</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="S3" t="n">
-        <v>1.1111111111111112</v>
+        <v>4.0</v>
       </c>
       <c r="T3" t="n">
         <v>4.0</v>
@@ -2308,22 +2531,19 @@
         <v>4.0</v>
       </c>
       <c r="V3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="W3" t="n">
         <v>1.0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -2331,58 +2551,58 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E4" t="s">
         <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>44.0</v>
       </c>
       <c r="F4" t="s">
         <v>80</v>
       </c>
-      <c r="G4" t="s">
-        <v>81</v>
+      <c r="G4" t="n">
+        <v>1.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I4" t="n">
         <v>7.0</v>
       </c>
-      <c r="J4" t="s">
-        <v>81</v>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.08333333333333348</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08333333333333348</v>
+        <v>-0.2333333333333334</v>
       </c>
       <c r="L4" t="n">
-        <v>0.16666666666666663</v>
+        <v>160.0</v>
       </c>
       <c r="M4" t="n">
-        <v>160.0</v>
+        <v>120.0</v>
       </c>
       <c r="N4" t="n">
-        <v>120.0</v>
+        <v>132.0</v>
       </c>
       <c r="O4" t="n">
-        <v>132.0</v>
+        <v>121.0</v>
       </c>
       <c r="P4" t="n">
-        <v>124.0</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.333333333333336</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="R4" t="n">
-        <v>2.9166666666666665</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8333333333333334</v>
+        <v>3.0</v>
       </c>
       <c r="T4" t="n">
         <v>3.0</v>
@@ -2391,22 +2611,19 @@
         <v>3.0</v>
       </c>
       <c r="V4" t="n">
-        <v>3.0</v>
+        <v>0.6</v>
       </c>
       <c r="W4" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z4" t="n">
         <v>0.0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -2414,81 +2631,78 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E5" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>44.0</v>
       </c>
       <c r="F5" t="s">
         <v>80</v>
       </c>
-      <c r="G5" t="s">
-        <v>81</v>
+      <c r="G5" t="n">
+        <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I5" t="n">
         <v>6.0</v>
       </c>
-      <c r="J5" t="s">
-        <v>81</v>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.08333333333333348</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.4166666666666665</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="L5" t="n">
-        <v>0.16666666666666663</v>
+        <v>160.0</v>
       </c>
       <c r="M5" t="n">
-        <v>160.0</v>
+        <v>120.0</v>
       </c>
       <c r="N5" t="n">
-        <v>120.0</v>
+        <v>132.0</v>
       </c>
       <c r="O5" t="n">
-        <v>132.0</v>
+        <v>125.0</v>
       </c>
       <c r="P5" t="n">
-        <v>120.5</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="Q5" t="n">
-        <v>40.166666666666664</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="R5" t="n">
-        <v>2.9166666666666665</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8333333333333334</v>
+        <v>3.0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="U5" t="n">
         <v>3.0</v>
       </c>
       <c r="V5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="X5" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y5" t="n">
         <v>0.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA5" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2497,81 +2711,78 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E6" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>44.0</v>
       </c>
       <c r="F6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>81</v>
+      <c r="G6" t="n">
+        <v>1.0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I6" t="n">
         <v>7.0</v>
       </c>
-      <c r="J6" t="s">
-        <v>81</v>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.19444444444444464</v>
       </c>
       <c r="K6" t="n">
-        <v>0.30555555555555536</v>
+        <v>-0.05555555555555558</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.05555555555555558</v>
+        <v>160.0</v>
       </c>
       <c r="M6" t="n">
-        <v>160.0</v>
+        <v>152.0</v>
       </c>
       <c r="N6" t="n">
-        <v>152.0</v>
+        <v>167.20000000000002</v>
       </c>
       <c r="O6" t="n">
-        <v>167.20000000000002</v>
+        <v>152.5</v>
       </c>
       <c r="P6" t="n">
-        <v>160.0</v>
+        <v>40.13157894736842</v>
       </c>
       <c r="Q6" t="n">
-        <v>42.10526315789474</v>
+        <v>3.6944444444444446</v>
       </c>
       <c r="R6" t="n">
-        <v>3.6944444444444446</v>
+        <v>1.0555555555555556</v>
       </c>
       <c r="S6" t="n">
-        <v>1.0555555555555556</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
         <v>4.0</v>
       </c>
       <c r="U6" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="V6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="W6" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="X6" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AA6" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2580,58 +2791,58 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40.0</v>
       </c>
       <c r="D7" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E7" t="n">
         <v>44.0</v>
       </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
       <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I7" t="n">
         <v>7.0</v>
       </c>
-      <c r="J7" t="s">
-        <v>81</v>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.08333333333333348</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08333333333333348</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.2333333333333334</v>
+        <v>160.0</v>
       </c>
       <c r="M7" t="n">
-        <v>160.0</v>
+        <v>120.0</v>
       </c>
       <c r="N7" t="n">
-        <v>120.0</v>
+        <v>132.0</v>
       </c>
       <c r="O7" t="n">
-        <v>132.0</v>
+        <v>130.0</v>
       </c>
       <c r="P7" t="n">
-        <v>125.0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.666666666666664</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="R7" t="n">
-        <v>2.9166666666666665</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8333333333333334</v>
+        <v>3.0</v>
       </c>
       <c r="T7" t="n">
         <v>3.0</v>
@@ -2640,21 +2851,18 @@
         <v>3.0</v>
       </c>
       <c r="V7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6</v>
+        <v>10.0</v>
       </c>
       <c r="X7" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y7" t="n">
         <v>0.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA7" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2663,58 +2871,58 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2777777777777777</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L8" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>123.20000000000002</v>
+      </c>
+      <c r="O8" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="P8" t="n">
         <v>40.0</v>
       </c>
-      <c r="E8" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.2777777777777777</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="M8" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>112.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>123.20000000000002</v>
-      </c>
-      <c r="P8" t="n">
-        <v>113.0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>40.357142857142854</v>
+        <v>2.7222222222222223</v>
       </c>
       <c r="R8" t="n">
-        <v>2.7222222222222223</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7777777777777778</v>
+        <v>3.0</v>
       </c>
       <c r="T8" t="n">
         <v>3.0</v>
@@ -2723,21 +2931,18 @@
         <v>3.0</v>
       </c>
       <c r="V8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="W8" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="X8" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8" t="n">
         <v>0.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA8" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2746,81 +2951,78 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E9" t="s">
         <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>44.0</v>
       </c>
       <c r="F9" t="s">
         <v>80</v>
       </c>
-      <c r="G9" t="s">
-        <v>81</v>
+      <c r="G9" t="n">
+        <v>1.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I9" t="n">
         <v>7.0</v>
       </c>
-      <c r="J9" t="s">
-        <v>81</v>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.38888888888888884</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.38888888888888884</v>
+        <v>-0.11111111111111116</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.11111111111111116</v>
+        <v>160.0</v>
       </c>
       <c r="M9" t="n">
         <v>160.0</v>
       </c>
       <c r="N9" t="n">
-        <v>160.0</v>
+        <v>176.0</v>
       </c>
       <c r="O9" t="n">
-        <v>176.0</v>
+        <v>160.5</v>
       </c>
       <c r="P9" t="n">
-        <v>160.5</v>
+        <v>40.125</v>
       </c>
       <c r="Q9" t="n">
-        <v>40.125</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="R9" t="n">
-        <v>3.888888888888889</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="S9" t="n">
-        <v>1.1111111111111112</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="U9" t="n">
         <v>3.0</v>
       </c>
       <c r="V9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="X9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y9" t="n">
         <v>0.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA9" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2829,81 +3031,78 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E10" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>44.0</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="G10" t="s">
-        <v>81</v>
+      <c r="G10" t="n">
+        <v>1.0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I10" t="n">
         <v>7.0</v>
       </c>
-      <c r="J10" t="s">
-        <v>80</v>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.36111111111111116</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.13888888888888884</v>
+        <v>-0.21111111111111114</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.21111111111111114</v>
+        <v>160.0</v>
       </c>
       <c r="M10" t="n">
-        <v>160.0</v>
+        <v>88.0</v>
       </c>
       <c r="N10" t="n">
-        <v>88.0</v>
+        <v>96.80000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>96.80000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="P10" t="n">
-        <v>90.0</v>
+        <v>42.04545454545455</v>
       </c>
       <c r="Q10" t="n">
-        <v>40.90909090909091</v>
+        <v>2.138888888888889</v>
       </c>
       <c r="R10" t="n">
-        <v>2.138888888888889</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6111111111111112</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
         <v>2.0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V10" t="n">
-        <v>2.0</v>
+        <v>0.4</v>
       </c>
       <c r="W10" t="n">
-        <v>0.4</v>
+        <v>18.0</v>
       </c>
       <c r="X10" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y10" t="n">
         <v>0.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA10" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2923,42 +3122,42 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>91</v>
-      </c>
-      <c r="L1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -2973,7 +3172,7 @@
         <v>5.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7222222222222219</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="G2" t="n">
         <v>0.4555555555555556</v>
@@ -2985,13 +3184,435 @@
         <v>16.0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="K2" t="n">
-        <v>29.4</v>
+        <v>30.6</v>
       </c>
       <c r="L2" t="n">
-        <v>28.92</v>
+        <v>30.360000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="56.51953125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/example/schedule.xlsx
+++ b/example/schedule.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2019-02" r:id="rId3" sheetId="1"/>
+    <sheet name="schedule" r:id="rId3" sheetId="1"/>
     <sheet name="doctors.stats" r:id="rId4" sheetId="2"/>
     <sheet name="opt_parms" r:id="rId5" sheetId="3"/>
     <sheet name="warnings" r:id="rId6" sheetId="4"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="104">
   <si>
     <t>01</t>
   </si>
@@ -146,19 +146,19 @@
     <t>FT</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>N2</t>
   </si>
   <si>
     <t>N1</t>
   </si>
   <si>
-    <t>8</t>
+    <t>-</t>
   </si>
   <si>
     <t>4_2</t>
@@ -308,223 +308,25 @@
     <t>4</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>No more doctor found for 4, ward 4_2 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 7, ward 4_2 presence remains 1</t>
-  </si>
-  <si>
-    <t>No more doctor found for 6, ward 4_2 presence remains 1</t>
-  </si>
-  <si>
-    <t>No more doctor found for 8, ward 4_1 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 26, ward 4_1 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 11, ward 4_1 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 4, ward 12_2 presence remains 1</t>
-  </si>
-  <si>
-    <t>No more doctor found for 1, ward 12_2 presence remains 2</t>
-  </si>
-  <si>
-    <t>No more doctor found for 5, ward 12_2 presence remains 1</t>
-  </si>
-  <si>
-    <t>No more doctor found for 7, ward 12_2 presence remains 1</t>
-  </si>
-  <si>
-    <t>No more doctor found for 6, ward 12_2 presence remains 1</t>
-  </si>
-  <si>
-    <t>No more doctor found for 28, ward 12_2 presence remains 2</t>
-  </si>
-  <si>
-    <t>No more doctor found for 25, ward 12_2 presence remains 2</t>
-  </si>
-  <si>
-    <t>No more doctor found for 8, ward 12_2 presence remains 1</t>
-  </si>
-  <si>
-    <t>No more doctor found for 20, ward 12_2 presence remains 2</t>
-  </si>
-  <si>
-    <t>No more doctor found for 14, ward 4_3 presence remains 1</t>
-  </si>
-  <si>
-    <t>No more doctor found for 13, ward 4_3 presence remains 1</t>
-  </si>
-  <si>
-    <t>No more doctor found for 12, ward 4_3 presence remains 1</t>
-  </si>
-  <si>
-    <t>No more doctor found for 25, ward 4_3 presence remains 2</t>
-  </si>
-  <si>
-    <t>No more doctor found for 6, ward 4_3 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 8, ward 4_3 presence remains 2</t>
-  </si>
-  <si>
-    <t>No more doctor found for 22, ward 4_3 presence remains 1</t>
-  </si>
-  <si>
-    <t>No more doctor found for 7, ward 4_3 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 22, ward 6_3 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 18, ward 6_3 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 28, ward 6_3 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 25, ward 6_3 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 5, ward 6_3 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 14, ward 6_3 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 21, ward 6_3 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 26, ward 6_3 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 19, ward 6_3 presence remains 0</t>
-  </si>
-  <si>
-    <t>No more doctor found for 4, total presence remains 4</t>
-  </si>
-  <si>
-    <t>No more doctor found for 7, total presence remains 4</t>
-  </si>
-  <si>
-    <t>No more doctor found for 25, total presence remains 7</t>
-  </si>
-  <si>
-    <t>No more doctor found for 8, total presence remains 5</t>
-  </si>
-  <si>
-    <t>No more doctor found for 6, total presence remains 4</t>
-  </si>
-  <si>
-    <t>No more doctor found for 5, total presence remains 5</t>
-  </si>
-  <si>
-    <t>No more doctor found for 26, total presence remains 6</t>
-  </si>
-  <si>
-    <t>No more doctor found for 22, total presence remains 7</t>
-  </si>
-  <si>
-    <t>No more doctor found for 14, total presence remains 4</t>
-  </si>
-  <si>
-    <t>No more doctor found for 28, total presence remains 6</t>
-  </si>
-  <si>
-    <t>No more doctor found for 13, total presence remains 5</t>
-  </si>
-  <si>
-    <t>No more doctor found for 18, total presence remains 6</t>
-  </si>
-  <si>
-    <t>No more doctor found for 21, total presence remains 7</t>
-  </si>
-  <si>
-    <t>No more doctor found for 19, total presence remains 6</t>
-  </si>
-  <si>
-    <t>No more doctor found for 11, total presence remains 5</t>
-  </si>
-  <si>
-    <t>No more doctor found for 1, total presence remains 6</t>
-  </si>
-  <si>
-    <t>No more doctor found for 20, total presence remains 6</t>
-  </si>
-  <si>
-    <t>No more doctor found for 12, total presence remains 6</t>
+    <t>2019-02-08: No split possible based on provisional day presence</t>
+  </si>
+  <si>
+    <t>2019-02-22: No split possible based on provisional day presence</t>
+  </si>
+  <si>
+    <t>2019-02-04: No split possible based on provisional day presence</t>
+  </si>
+  <si>
+    <t>2019-02-07: No split possible based on provisional day presence</t>
+  </si>
+  <si>
+    <t>2019-02-05: No split possible based on provisional day presence</t>
+  </si>
+  <si>
+    <t>2019-02-12: No split possible based on provisional day presence</t>
+  </si>
+  <si>
+    <t>Unable to assign FT for Crusher in this week, trying next week...</t>
   </si>
 </sst>
 </file>
@@ -968,10 +770,10 @@
         <v>37</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s" s="4">
         <v>41</v>
@@ -989,25 +791,25 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="6">
         <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s" s="4">
         <v>42</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="s" s="5">
         <v>38</v>
@@ -1016,37 +818,37 @@
         <v>39</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="T2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="U2" t="s" s="2">
-        <v>37</v>
+      <c r="T2" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s" s="4">
+        <v>39</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y2" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA2" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="Z2" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="AB2" t="s" s="4">
+      <c r="AA2" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="AC2" t="s" s="7">
-        <v>45</v>
+      <c r="AB2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC2" t="s" s="6">
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
@@ -1059,14 +861,14 @@
       <c r="C3" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="D3" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>40</v>
+      <c r="D3" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s" s="4">
+        <v>42</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>40</v>
@@ -1078,58 +880,58 @@
         <v>39</v>
       </c>
       <c r="J3" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s" s="5">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="R3" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V3" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="L3" t="s" s="4">
+      <c r="W3" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="M3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="O3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="R3" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="X3" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y3" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="Z3" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="AA3" t="s" s="4">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
         <v>40</v>
@@ -1146,10 +948,10 @@
         <v>39</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s" s="4">
         <v>41</v>
@@ -1167,10 +969,10 @@
         <v>41</v>
       </c>
       <c r="J4" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s" s="7">
         <v>45</v>
@@ -1188,7 +990,7 @@
         <v>40</v>
       </c>
       <c r="Q4" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s" s="5">
         <v>38</v>
@@ -1199,32 +1001,32 @@
       <c r="T4" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="U4" t="s" s="6">
+      <c r="U4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X4" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="Y4" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA4" t="s" s="6">
         <v>46</v>
       </c>
-      <c r="V4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X4" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="Y4" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB4" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="AC4" t="s" s="4">
-        <v>39</v>
+      <c r="AB4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
@@ -1235,13 +1037,13 @@
         <v>40</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s" s="4">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>40</v>
@@ -1256,10 +1058,10 @@
         <v>40</v>
       </c>
       <c r="J5" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s" s="4">
         <v>41</v>
@@ -1277,16 +1079,16 @@
         <v>41</v>
       </c>
       <c r="Q5" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R5" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="S5" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="T5" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="U5" t="s" s="2">
         <v>40</v>
@@ -1294,26 +1096,26 @@
       <c r="V5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="W5" t="s" s="5">
+      <c r="W5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X5" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="X5" t="s" s="4">
+      <c r="Y5" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="Y5" t="s" s="3">
-        <v>43</v>
-      </c>
       <c r="Z5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AB5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC5" t="s" s="6">
-        <v>46</v>
+      <c r="AB5" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="4">
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
@@ -1324,10 +1126,10 @@
         <v>41</v>
       </c>
       <c r="C6" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s" s="2">
         <v>40</v>
@@ -1338,17 +1140,17 @@
       <c r="G6" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="H6" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s" s="5">
+      <c r="H6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="K6" t="s" s="4">
+      <c r="J6" t="s" s="4">
         <v>39</v>
+      </c>
+      <c r="K6" t="s" s="3">
+        <v>44</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>40</v>
@@ -1366,10 +1168,10 @@
         <v>40</v>
       </c>
       <c r="Q6" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R6" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S6" t="s" s="2">
         <v>40</v>
@@ -1380,17 +1182,17 @@
       <c r="U6" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="V6" t="s" s="5">
+      <c r="V6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W6" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="W6" t="s" s="4">
+      <c r="X6" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="X6" t="s" s="3">
-        <v>43</v>
-      </c>
       <c r="Y6" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>40</v>
@@ -1413,10 +1215,10 @@
         <v>40</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s" s="4">
         <v>41</v>
@@ -1434,10 +1236,10 @@
         <v>41</v>
       </c>
       <c r="J7" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>40</v>
@@ -1458,25 +1260,25 @@
         <v>39</v>
       </c>
       <c r="R7" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="T7" t="s" s="5">
+      <c r="T7" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="U7" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="U7" t="s" s="4">
+      <c r="V7" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="V7" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="W7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="X7" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y7" t="s" s="5">
         <v>38</v>
@@ -1517,16 +1319,16 @@
         <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s" s="4">
         <v>41</v>
@@ -1544,10 +1346,10 @@
         <v>41</v>
       </c>
       <c r="Q8" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R8" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S8" t="s" s="7">
         <v>45</v>
@@ -1555,32 +1357,32 @@
       <c r="T8" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="U8" t="s" s="7">
+      <c r="U8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X8" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="Y8" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="Z8" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC8" t="s" s="7">
         <v>45</v>
-      </c>
-      <c r="V8" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X8" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="Y8" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB8" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
@@ -1588,34 +1390,34 @@
         <v>35</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D9" t="s" s="3">
+      <c r="F9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="E9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="H9" t="s" s="4">
+        <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s" s="3">
         <v>43</v>
       </c>
-      <c r="K9" t="s" s="3">
-        <v>43</v>
+      <c r="J9" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s" s="4">
+        <v>39</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>40</v>
@@ -1633,40 +1435,40 @@
         <v>39</v>
       </c>
       <c r="Q9" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S9" t="s" s="6">
         <v>46</v>
       </c>
-      <c r="T9" t="s" s="4">
-        <v>42</v>
+      <c r="T9" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="X9" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="Y9" t="s" s="4">
+      <c r="X9" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="Y9" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA9" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="AB9" t="s" s="4">
         <v>39</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA9" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>40</v>
@@ -1680,10 +1482,10 @@
         <v>40</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s" s="5">
         <v>38</v>
@@ -1697,17 +1499,17 @@
       <c r="H10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="I10" t="s" s="5">
+      <c r="I10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="J10" t="s" s="4">
+      <c r="L10" t="s" s="4">
         <v>39</v>
-      </c>
-      <c r="K10" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>40</v>
@@ -1722,10 +1524,10 @@
         <v>40</v>
       </c>
       <c r="Q10" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s" s="4">
         <v>41</v>
@@ -1743,10 +1545,10 @@
         <v>41</v>
       </c>
       <c r="X10" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y10" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z10" t="s" s="4">
         <v>41</v>
@@ -1765,7 +1567,7 @@
       <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="n" s="15">
+      <c r="B12" t="n">
         <v>0.19999999999999996</v>
       </c>
       <c r="C12" t="n">
@@ -1787,7 +1589,7 @@
         <v>-0.6000000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="J12" t="n">
         <v>0.0</v>
@@ -1798,17 +1600,17 @@
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
-      <c r="M12" t="n" s="15">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="N12" t="n" s="15">
-        <v>0.6000000000000001</v>
+      <c r="M12" t="n">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.19999999999999996</v>
       </c>
       <c r="O12" t="n">
         <v>0.0</v>
       </c>
-      <c r="P12" t="n" s="15">
-        <v>0.6000000000000001</v>
+      <c r="P12" t="n">
+        <v>0.19999999999999996</v>
       </c>
       <c r="Q12" t="n">
         <v>1.0</v>
@@ -1816,20 +1618,20 @@
       <c r="R12" t="n">
         <v>0.0</v>
       </c>
-      <c r="S12" t="n" s="15">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="T12" t="n" s="15">
-        <v>1.2</v>
+      <c r="S12" t="n">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.0</v>
       </c>
       <c r="U12" t="n" s="15">
-        <v>1.2</v>
+        <v>1.0</v>
       </c>
       <c r="V12" t="n" s="15">
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="W12" t="n" s="15">
-        <v>0.20000000000000018</v>
+        <v>1.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.3999999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>0.0</v>
@@ -1837,14 +1639,14 @@
       <c r="Y12" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z12" t="n" s="17">
-        <v>2.2</v>
+      <c r="Z12" t="n" s="15">
+        <v>1.0</v>
       </c>
       <c r="AA12" t="n">
         <v>0.0</v>
       </c>
-      <c r="AB12" t="n">
-        <v>0.0</v>
+      <c r="AB12" t="n" s="15">
+        <v>1.0</v>
       </c>
       <c r="AC12" t="n" s="15">
         <v>1.0</v>
@@ -1861,13 +1663,13 @@
         <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="F13" t="n" s="13">
+        <v>-1.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -1882,44 +1684,44 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L13" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W13" t="n" s="13">
         <v>-1.0</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.0</v>
-      </c>
       <c r="X13" t="n">
         <v>0.0</v>
       </c>
@@ -1929,8 +1731,8 @@
       <c r="Z13" t="n">
         <v>0.0</v>
       </c>
-      <c r="AA13" t="n" s="13">
-        <v>-1.0</v>
+      <c r="AA13" t="n">
+        <v>0.0</v>
       </c>
       <c r="AB13" t="n">
         <v>0.0</v>
@@ -1944,7 +1746,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="n" s="13">
-        <v>-1.0</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -1959,16 +1761,16 @@
         <v>-0.6000000000000001</v>
       </c>
       <c r="G14" t="n" s="13">
-        <v>-1.0</v>
-      </c>
-      <c r="H14" t="n" s="13">
-        <v>-1.0</v>
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="H14" t="n" s="11">
+        <v>-2.0</v>
       </c>
       <c r="I14" t="n" s="13">
         <v>-0.6000000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K14" t="n">
         <v>0.0</v>
@@ -2000,32 +1802,32 @@
       <c r="T14" t="n">
         <v>0.0</v>
       </c>
-      <c r="U14" t="n" s="13">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.0</v>
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="n" s="13">
+        <v>-0.20000000000000018</v>
       </c>
       <c r="W14" t="n">
         <v>0.0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y14" t="n">
         <v>1.0</v>
       </c>
       <c r="Z14" t="n" s="13">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="AA14" t="n" s="15">
-        <v>1.0</v>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.0</v>
       </c>
       <c r="AB14" t="n">
         <v>0.0</v>
       </c>
-      <c r="AC14" t="n" s="13">
-        <v>-1.0</v>
+      <c r="AC14" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
@@ -2039,10 +1841,10 @@
         <v>0.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="15">
+        <v>1.0</v>
       </c>
       <c r="F15" t="n">
         <v>0.0</v>
@@ -2050,14 +1852,14 @@
       <c r="G15" t="n" s="13">
         <v>-1.0</v>
       </c>
-      <c r="H15" t="n" s="13">
-        <v>-1.0</v>
+      <c r="H15" t="n">
+        <v>0.0</v>
       </c>
       <c r="I15" t="n" s="13">
         <v>-1.0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K15" t="n">
         <v>0.0</v>
@@ -2083,8 +1885,8 @@
       <c r="R15" t="n">
         <v>0.0</v>
       </c>
-      <c r="S15" t="n" s="15">
-        <v>1.0</v>
+      <c r="S15" t="n">
+        <v>0.0</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
@@ -2095,11 +1897,11 @@
       <c r="V15" t="n">
         <v>0.0</v>
       </c>
-      <c r="W15" t="n" s="13">
-        <v>-1.0</v>
+      <c r="W15" t="n">
+        <v>0.0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y15" t="n">
         <v>0.0</v>
@@ -2113,8 +1915,8 @@
       <c r="AB15" t="n">
         <v>0.0</v>
       </c>
-      <c r="AC15" t="n">
-        <v>0.0</v>
+      <c r="AC15" t="n" s="13">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
@@ -2149,10 +1951,10 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="L16" t="n" s="13">
+        <v>-1.0</v>
       </c>
       <c r="M16" t="n">
         <v>0.0</v>
@@ -2172,20 +1974,20 @@
       <c r="R16" t="n">
         <v>0.0</v>
       </c>
-      <c r="S16" t="n" s="13">
-        <v>-1.0</v>
-      </c>
-      <c r="T16" t="n" s="13">
-        <v>-1.0</v>
+      <c r="S16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.0</v>
       </c>
       <c r="U16" t="n">
         <v>0.0</v>
       </c>
-      <c r="V16" t="n" s="13">
-        <v>-1.0</v>
-      </c>
-      <c r="W16" t="n" s="13">
-        <v>-1.0</v>
+      <c r="V16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.0</v>
       </c>
       <c r="X16" t="n">
         <v>0.0</v>
@@ -2193,25 +1995,25 @@
       <c r="Y16" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z16" t="n" s="13">
-        <v>-1.0</v>
-      </c>
-      <c r="AA16" t="n" s="13">
-        <v>-1.0</v>
+      <c r="Z16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.0</v>
       </c>
       <c r="AB16" t="n">
         <v>0.0</v>
       </c>
-      <c r="AC16" t="n" s="13">
-        <v>-1.0</v>
+      <c r="AC16" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="true">
       <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="n" s="23">
-        <v>0.19999999999999996</v>
+        <v>44</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5999999999999999</v>
       </c>
       <c r="C17" t="n" s="27">
         <v>1.0</v>
@@ -2222,17 +2024,17 @@
       <c r="E17" t="n" s="20">
         <v>-2.6</v>
       </c>
-      <c r="F17" t="n" s="21">
+      <c r="F17" t="n" s="20">
+        <v>-2.6</v>
+      </c>
+      <c r="G17" t="n" s="21">
         <v>-1.6</v>
-      </c>
-      <c r="G17" t="n" s="21">
-        <v>-2.0</v>
       </c>
       <c r="H17" t="n" s="20">
         <v>-2.6</v>
       </c>
       <c r="I17" t="n" s="20">
-        <v>-2.6</v>
+        <v>-2.2</v>
       </c>
       <c r="J17" t="n" s="27">
         <v>1.0</v>
@@ -2244,16 +2046,16 @@
         <v>-1.0</v>
       </c>
       <c r="M17" t="n" s="22">
-        <v>-0.3999999999999999</v>
+        <v>-0.8</v>
       </c>
       <c r="N17" t="n" s="22">
-        <v>-0.3999999999999999</v>
+        <v>-0.8</v>
       </c>
       <c r="O17" t="n" s="21">
         <v>-2.0</v>
       </c>
-      <c r="P17" t="n" s="23">
-        <v>0.6000000000000001</v>
+      <c r="P17" t="n">
+        <v>0.19999999999999996</v>
       </c>
       <c r="Q17" t="n" s="27">
         <v>1.0</v>
@@ -2261,20 +2063,20 @@
       <c r="R17" t="n" s="27">
         <v>1.0</v>
       </c>
-      <c r="S17" t="n" s="23">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="T17" t="n" s="23">
+      <c r="S17" t="n">
         <v>0.19999999999999996</v>
       </c>
+      <c r="T17" t="n" s="27">
+        <v>0.0</v>
+      </c>
       <c r="U17" t="n" s="23">
-        <v>0.5999999999999999</v>
-      </c>
-      <c r="V17" t="n" s="22">
-        <v>-0.8</v>
-      </c>
-      <c r="W17" t="n" s="21">
-        <v>-1.7999999999999998</v>
+        <v>1.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="W17" t="n" s="22">
+        <v>-0.6000000000000001</v>
       </c>
       <c r="X17" t="n" s="27">
         <v>1.0</v>
@@ -2283,16 +2085,16 @@
         <v>1.0</v>
       </c>
       <c r="Z17" t="n" s="22">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="AA17" t="n" s="22">
-        <v>-1.0</v>
-      </c>
-      <c r="AB17" t="n" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AC17" t="n" s="22">
-        <v>-1.0</v>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="AA17" t="n" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AB17" t="n" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="AC17" t="n" s="27">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2217,7 @@
         <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.4166666666666665</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="K2" t="n">
         <v>0.16666666666666663</v>
@@ -2430,10 +2232,10 @@
         <v>132.0</v>
       </c>
       <c r="O2" t="n">
-        <v>121.5</v>
+        <v>120.0</v>
       </c>
       <c r="P2" t="n">
-        <v>40.5</v>
+        <v>40.0</v>
       </c>
       <c r="Q2" t="n">
         <v>2.9166666666666665</v>
@@ -2442,10 +2244,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U2" t="n">
         <v>3.0</v>
@@ -2510,10 +2312,10 @@
         <v>176.0</v>
       </c>
       <c r="O3" t="n">
-        <v>170.0</v>
+        <v>165.0</v>
       </c>
       <c r="P3" t="n">
-        <v>42.5</v>
+        <v>41.25</v>
       </c>
       <c r="Q3" t="n">
         <v>3.888888888888889</v>
@@ -2540,10 +2342,10 @@
         <v>0.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -2575,7 +2377,7 @@
         <v>80</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08333333333333348</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="K4" t="n">
         <v>-0.2333333333333334</v>
@@ -2590,10 +2392,10 @@
         <v>132.0</v>
       </c>
       <c r="O4" t="n">
-        <v>121.0</v>
+        <v>120.5</v>
       </c>
       <c r="P4" t="n">
-        <v>40.333333333333336</v>
+        <v>40.166666666666664</v>
       </c>
       <c r="Q4" t="n">
         <v>2.9166666666666665</v>
@@ -2602,13 +2404,13 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="S4" t="n">
-        <v>3.0</v>
+        <v>2.5</v>
       </c>
       <c r="T4" t="n">
         <v>3.0</v>
       </c>
       <c r="U4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V4" t="n">
         <v>0.6</v>
@@ -2670,10 +2472,10 @@
         <v>132.0</v>
       </c>
       <c r="O5" t="n">
-        <v>125.0</v>
+        <v>120.0</v>
       </c>
       <c r="P5" t="n">
-        <v>41.666666666666664</v>
+        <v>40.0</v>
       </c>
       <c r="Q5" t="n">
         <v>2.9166666666666665</v>
@@ -2738,7 +2540,7 @@
         <v>-0.19444444444444464</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.05555555555555558</v>
+        <v>-0.25555555555555554</v>
       </c>
       <c r="L6" t="n">
         <v>160.0</v>
@@ -2750,10 +2552,10 @@
         <v>167.20000000000002</v>
       </c>
       <c r="O6" t="n">
-        <v>152.5</v>
+        <v>157.5</v>
       </c>
       <c r="P6" t="n">
-        <v>40.13157894736842</v>
+        <v>41.44736842105263</v>
       </c>
       <c r="Q6" t="n">
         <v>3.6944444444444446</v>
@@ -2771,7 +2573,7 @@
         <v>3.0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="W6" t="n">
         <v>8.0</v>
@@ -2780,10 +2582,10 @@
         <v>0.0</v>
       </c>
       <c r="Y6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z6" t="n">
         <v>2.0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2830,10 +2632,10 @@
         <v>132.0</v>
       </c>
       <c r="O7" t="n">
-        <v>130.0</v>
+        <v>125.0</v>
       </c>
       <c r="P7" t="n">
-        <v>43.333333333333336</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="Q7" t="n">
         <v>2.9166666666666665</v>
@@ -2990,10 +2792,10 @@
         <v>176.0</v>
       </c>
       <c r="O9" t="n">
-        <v>160.5</v>
+        <v>161.5</v>
       </c>
       <c r="P9" t="n">
-        <v>40.125</v>
+        <v>40.375</v>
       </c>
       <c r="Q9" t="n">
         <v>3.888888888888889</v>
@@ -3005,10 +2807,10 @@
         <v>3.5</v>
       </c>
       <c r="T9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U9" t="n">
         <v>4.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3.0</v>
       </c>
       <c r="V9" t="n">
         <v>1.0</v>
@@ -3058,7 +2860,7 @@
         <v>0.36111111111111116</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.21111111111111114</v>
+        <v>-0.011111111111111183</v>
       </c>
       <c r="L10" t="n">
         <v>160.0</v>
@@ -3091,7 +2893,7 @@
         <v>3.0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="W10" t="n">
         <v>18.0</v>
@@ -3175,7 +2977,7 @@
         <v>0.7777777777777777</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4555555555555556</v>
+        <v>0.47777777777777775</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -3187,10 +2989,10 @@
         <v>9.0</v>
       </c>
       <c r="K2" t="n">
-        <v>30.6</v>
+        <v>23.0</v>
       </c>
       <c r="L2" t="n">
-        <v>30.360000000000003</v>
+        <v>24.44</v>
       </c>
     </row>
   </sheetData>
@@ -3206,7 +3008,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="56.51953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="60.328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3220,7 +3022,7 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -3228,7 +3030,7 @@
         <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
@@ -3236,7 +3038,7 @@
         <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
@@ -3244,7 +3046,7 @@
         <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -3252,7 +3054,7 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
@@ -3260,359 +3062,15 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
         <v>103</v>
-      </c>
-      <c r="B35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/example/schedule.xlsx
+++ b/example/schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="102">
   <si>
     <t>01</t>
   </si>
@@ -128,39 +128,36 @@
     <t>Cottle</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>FT</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>N2</t>
   </si>
   <si>
     <t>N1</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>4_2</t>
   </si>
   <si>
@@ -308,6 +305,9 @@
     <t>4</t>
   </si>
   <si>
+    <t>2019-02-07: No split possible based on provisional day presence</t>
+  </si>
+  <si>
     <t>2019-02-08: No split possible based on provisional day presence</t>
   </si>
   <si>
@@ -317,16 +317,10 @@
     <t>2019-02-04: No split possible based on provisional day presence</t>
   </si>
   <si>
-    <t>2019-02-07: No split possible based on provisional day presence</t>
-  </si>
-  <si>
     <t>2019-02-05: No split possible based on provisional day presence</t>
   </si>
   <si>
     <t>2019-02-12: No split possible based on provisional day presence</t>
-  </si>
-  <si>
-    <t>Unable to assign FT for Crusher in this week, trying next week...</t>
   </si>
 </sst>
 </file>
@@ -675,7 +669,7 @@
   <sheetData>
     <row r="1" ht="15.0" customHeight="true">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -766,59 +760,59 @@
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="C2" t="s" s="3">
-        <v>44</v>
+      <c r="C2" t="s" s="4">
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s" s="6">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>38</v>
       </c>
       <c r="M2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="N2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s" s="4">
+      <c r="Q2" t="s" s="4">
         <v>39</v>
       </c>
+      <c r="R2" t="s" s="3">
+        <v>42</v>
+      </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="7">
         <v>45</v>
@@ -827,25 +821,25 @@
         <v>39</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y2" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="Z2" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="AA2" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="6">
         <v>46</v>
@@ -855,89 +849,89 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s" s="4">
-        <v>39</v>
+      <c r="B3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s" s="3">
+        <v>42</v>
       </c>
       <c r="D3" t="s" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="F3" t="s" s="4">
-        <v>42</v>
+      <c r="F3" t="s" s="2">
+        <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s" s="4">
         <v>39</v>
       </c>
       <c r="J3" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V3" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="W3" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W3" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="X3" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="X3" t="s" s="3">
-        <v>44</v>
-      </c>
       <c r="Y3" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="Z3" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="AA3" t="s" s="4">
+        <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
@@ -948,31 +942,31 @@
         <v>39</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s" s="7">
         <v>45</v>
@@ -980,53 +974,53 @@
       <c r="M4" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="N4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="O4" t="s" s="6">
+      <c r="N4" t="s" s="6">
         <v>46</v>
       </c>
-      <c r="P4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q4" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="R4" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="S4" t="s" s="4">
+      <c r="O4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s" s="4">
         <v>39</v>
       </c>
+      <c r="S4" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="T4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="U4" t="s" s="6">
+        <v>46</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z4" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AA4" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>40</v>
+      <c r="AA4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB4" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="AC4" t="s" s="4">
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
@@ -1034,19 +1028,19 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="G5" t="s" s="7">
         <v>45</v>
@@ -1055,67 +1049,67 @@
         <v>39</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="P5" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="Q5" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="R5" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="S5" t="s" s="4">
         <v>41</v>
-      </c>
-      <c r="M5" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="N5" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="O5" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="P5" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="Q5" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="R5" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="S5" t="s" s="4">
-        <v>42</v>
       </c>
       <c r="T5" t="s" s="6">
         <v>46</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="X5" t="s" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y5" t="s" s="4">
         <v>39</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB5" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="4">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="AB5" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
@@ -1123,88 +1117,88 @@
         <v>32</v>
       </c>
       <c r="B6" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="C6" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="F6" t="s" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s" s="4">
         <v>39</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="K6" t="s" s="3">
-        <v>44</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N6" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s" s="6">
         <v>46</v>
       </c>
-      <c r="O6" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="P6" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q6" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R6" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W6" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="X6" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="V6" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="W6" t="s" s="4">
         <v>39</v>
       </c>
+      <c r="X6" t="s" s="3">
+        <v>42</v>
+      </c>
       <c r="Y6" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
@@ -1212,88 +1206,88 @@
         <v>33</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="M7" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s" s="4">
+        <v>39</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P7" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="Q7" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q7" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="R7" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="S7" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="T7" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="R7" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T7" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="U7" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="V7" t="s" s="4">
-        <v>39</v>
+      <c r="U7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="s" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="s" s="4">
         <v>39</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
@@ -1301,19 +1295,19 @@
         <v>34</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s" s="4">
         <v>39</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="6">
         <v>46</v>
@@ -1325,61 +1319,61 @@
         <v>43</v>
       </c>
       <c r="J8" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O8" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q8" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R8" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="S8" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U8" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="T8" t="s" s="4">
+      <c r="V8" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="U8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="W8" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y8" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="Z8" t="s" s="6">
+        <v>42</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA8" t="s" s="6">
         <v>46</v>
       </c>
-      <c r="AA8" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AB8" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="7">
         <v>45</v>
@@ -1390,13 +1384,13 @@
         <v>35</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s" s="2">
         <v>43</v>
@@ -1407,26 +1401,26 @@
       <c r="G9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H9" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J9" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="K9" t="s" s="4">
+      <c r="H9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M9" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="N9" t="s" s="4">
-        <v>39</v>
+      <c r="K9" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="L9" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>38</v>
       </c>
       <c r="O9" t="s" s="7">
         <v>45</v>
@@ -1435,31 +1429,31 @@
         <v>39</v>
       </c>
       <c r="Q9" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="R9" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="S9" t="s" s="6">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="R9" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="S9" t="s" s="4">
+        <v>39</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y9" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>43</v>
@@ -1471,7 +1465,7 @@
         <v>39</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
@@ -1479,40 +1473,40 @@
         <v>36</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s" s="4">
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s" s="4">
         <v>39</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N10" t="s" s="7">
         <v>45</v>
@@ -1521,54 +1515,54 @@
         <v>39</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q10" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R10" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S10" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U10" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V10" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X10" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="s" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="n">
-        <v>0.19999999999999996</v>
+        <v>0.0</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1580,7 +1574,7 @@
         <v>-1.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="G12" t="n" s="13">
         <v>-1.0</v>
@@ -1601,37 +1595,37 @@
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.19999999999999996</v>
+        <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="15">
+        <v>1.0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.19999999999999996</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R12" t="n">
         <v>0.0</v>
       </c>
-      <c r="S12" t="n">
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="V12" t="n" s="15">
-        <v>1.0</v>
+      <c r="S12" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="T12" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="X12" t="n">
         <v>0.0</v>
@@ -1639,11 +1633,11 @@
       <c r="Y12" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.0</v>
+      <c r="Z12" t="n" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="AA12" t="n" s="15">
+        <v>1.0</v>
       </c>
       <c r="AB12" t="n" s="15">
         <v>1.0</v>
@@ -1654,7 +1648,7 @@
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -1668,8 +1662,8 @@
       <c r="E13" t="n" s="13">
         <v>-1.0</v>
       </c>
-      <c r="F13" t="n" s="13">
-        <v>-1.0</v>
+      <c r="F13" t="n">
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -1719,20 +1713,20 @@
       <c r="V13" t="n">
         <v>0.0</v>
       </c>
-      <c r="W13" t="n" s="13">
+      <c r="W13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA13" t="n" s="13">
         <v>-1.0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.0</v>
       </c>
       <c r="AB13" t="n">
         <v>0.0</v>
@@ -1743,10 +1737,10 @@
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="n" s="13">
-        <v>-0.6000000000000001</v>
+        <v>-1.0</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -1763,14 +1757,14 @@
       <c r="G14" t="n" s="13">
         <v>-0.6000000000000001</v>
       </c>
-      <c r="H14" t="n" s="11">
-        <v>-2.0</v>
+      <c r="H14" t="n" s="13">
+        <v>-1.0</v>
       </c>
       <c r="I14" t="n" s="13">
-        <v>-0.6000000000000001</v>
+        <v>-1.0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K14" t="n">
         <v>0.0</v>
@@ -1787,11 +1781,11 @@
       <c r="O14" t="n">
         <v>0.0</v>
       </c>
-      <c r="P14" t="n">
-        <v>0.0</v>
+      <c r="P14" t="n" s="13">
+        <v>-1.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R14" t="n">
         <v>1.0</v>
@@ -1805,8 +1799,8 @@
       <c r="U14" t="n">
         <v>0.0</v>
       </c>
-      <c r="V14" t="n" s="13">
-        <v>-0.20000000000000018</v>
+      <c r="V14" t="n">
+        <v>0.0</v>
       </c>
       <c r="W14" t="n">
         <v>0.0</v>
@@ -1823,16 +1817,16 @@
       <c r="AA14" t="n">
         <v>0.0</v>
       </c>
-      <c r="AB14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.0</v>
+      <c r="AB14" t="n" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="AC14" t="n" s="13">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="n" s="15">
         <v>1.0</v>
@@ -1843,11 +1837,11 @@
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
-      <c r="E15" t="n" s="15">
-        <v>1.0</v>
+      <c r="E15" t="n">
+        <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="G15" t="n" s="13">
         <v>-1.0</v>
@@ -1856,10 +1850,10 @@
         <v>0.0</v>
       </c>
       <c r="I15" t="n" s="13">
-        <v>-1.0</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K15" t="n">
         <v>0.0</v>
@@ -1892,13 +1886,13 @@
         <v>0.0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.0</v>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="W15" t="n" s="13">
+        <v>-0.8</v>
       </c>
       <c r="X15" t="n">
         <v>1.0</v>
@@ -1907,21 +1901,21 @@
         <v>0.0</v>
       </c>
       <c r="Z15" t="n" s="13">
-        <v>-1.0</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="AB15" t="n">
         <v>0.0</v>
       </c>
-      <c r="AC15" t="n" s="13">
-        <v>-1.0</v>
+      <c r="AC15" t="n">
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -2010,10 +2004,10 @@
     </row>
     <row r="17" ht="15.0" customHeight="true">
       <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.5999999999999999</v>
+        <v>42</v>
+      </c>
+      <c r="B17" t="n" s="27">
+        <v>0.0</v>
       </c>
       <c r="C17" t="n" s="27">
         <v>1.0</v>
@@ -2022,19 +2016,19 @@
         <v>1.0</v>
       </c>
       <c r="E17" t="n" s="20">
-        <v>-2.6</v>
-      </c>
-      <c r="F17" t="n" s="20">
-        <v>-2.6</v>
+        <v>-3.6</v>
+      </c>
+      <c r="F17" t="n" s="22">
+        <v>-1.0</v>
       </c>
       <c r="G17" t="n" s="21">
         <v>-1.6</v>
       </c>
-      <c r="H17" t="n" s="20">
-        <v>-2.6</v>
+      <c r="H17" t="n" s="21">
+        <v>-1.6</v>
       </c>
       <c r="I17" t="n" s="20">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="J17" t="n" s="27">
         <v>1.0</v>
@@ -2046,55 +2040,55 @@
         <v>-1.0</v>
       </c>
       <c r="M17" t="n" s="22">
+        <v>-1.0</v>
+      </c>
+      <c r="N17" t="n" s="22">
+        <v>-1.0</v>
+      </c>
+      <c r="O17" t="n" s="22">
+        <v>-1.0</v>
+      </c>
+      <c r="P17" t="n" s="22">
+        <v>-1.0</v>
+      </c>
+      <c r="Q17" t="n" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="R17" t="n" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="S17" t="n" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="T17" t="n" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="U17" t="n" s="27">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="V17" t="n" s="27">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="W17" t="n" s="22">
         <v>-0.8</v>
       </c>
-      <c r="N17" t="n" s="22">
-        <v>-0.8</v>
-      </c>
-      <c r="O17" t="n" s="21">
-        <v>-2.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="Q17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="R17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="T17" t="n" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="U17" t="n" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="W17" t="n" s="22">
-        <v>-0.6000000000000001</v>
-      </c>
       <c r="X17" t="n" s="27">
         <v>1.0</v>
       </c>
       <c r="Y17" t="n" s="27">
         <v>1.0</v>
       </c>
-      <c r="Z17" t="n" s="22">
-        <v>-0.20000000000000018</v>
+      <c r="Z17" t="n" s="23">
+        <v>1.0</v>
       </c>
       <c r="AA17" t="n" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AB17" t="n" s="23">
-        <v>1.0</v>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="AB17" t="n" s="27">
+        <v>0.0</v>
       </c>
       <c r="AC17" t="n" s="27">
-        <v>0.0</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
   </sheetData>
@@ -2113,79 +2107,79 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>69</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>70</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>71</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>72</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>74</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>75</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>77</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -2193,7 +2187,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="n">
         <v>40.0</v>
@@ -2202,10 +2196,10 @@
         <v>44.0</v>
       </c>
       <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
         <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
       </c>
       <c r="G2" t="n">
         <v>1.0</v>
@@ -2214,13 +2208,13 @@
         <v>6.0</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" t="n">
         <v>0.08333333333333348</v>
       </c>
       <c r="K2" t="n">
-        <v>0.16666666666666663</v>
+        <v>-0.033333333333333326</v>
       </c>
       <c r="L2" t="n">
         <v>160.0</v>
@@ -2232,10 +2226,10 @@
         <v>132.0</v>
       </c>
       <c r="O2" t="n">
-        <v>120.0</v>
+        <v>125.0</v>
       </c>
       <c r="P2" t="n">
-        <v>40.0</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="Q2" t="n">
         <v>2.9166666666666665</v>
@@ -2253,7 +2247,7 @@
         <v>3.0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="W2" t="n">
         <v>14.0</v>
@@ -2262,10 +2256,10 @@
         <v>0.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -2273,7 +2267,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
         <v>40.0</v>
@@ -2282,10 +2276,10 @@
         <v>44.0</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
@@ -2294,7 +2288,7 @@
         <v>7.0</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" t="n">
         <v>0.11111111111111116</v>
@@ -2312,10 +2306,10 @@
         <v>176.0</v>
       </c>
       <c r="O3" t="n">
-        <v>165.0</v>
+        <v>170.0</v>
       </c>
       <c r="P3" t="n">
-        <v>41.25</v>
+        <v>42.5</v>
       </c>
       <c r="Q3" t="n">
         <v>3.888888888888889</v>
@@ -2353,7 +2347,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
         <v>40.0</v>
@@ -2362,10 +2356,10 @@
         <v>44.0</v>
       </c>
       <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
         <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>80</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
@@ -2374,13 +2368,13 @@
         <v>7.0</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.4166666666666665</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2333333333333334</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="L4" t="n">
         <v>160.0</v>
@@ -2392,10 +2386,10 @@
         <v>132.0</v>
       </c>
       <c r="O4" t="n">
-        <v>120.5</v>
+        <v>121.0</v>
       </c>
       <c r="P4" t="n">
-        <v>40.166666666666664</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="Q4" t="n">
         <v>2.9166666666666665</v>
@@ -2404,16 +2398,16 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="T4" t="n">
         <v>3.0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6</v>
+        <v>1.0</v>
       </c>
       <c r="W4" t="n">
         <v>15.0</v>
@@ -2433,7 +2427,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
         <v>40.0</v>
@@ -2442,10 +2436,10 @@
         <v>44.0</v>
       </c>
       <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
         <v>79</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
@@ -2454,10 +2448,10 @@
         <v>6.0</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08333333333333348</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="K5" t="n">
         <v>0.16666666666666663</v>
@@ -2472,10 +2466,10 @@
         <v>132.0</v>
       </c>
       <c r="O5" t="n">
-        <v>120.0</v>
+        <v>120.5</v>
       </c>
       <c r="P5" t="n">
-        <v>40.0</v>
+        <v>40.166666666666664</v>
       </c>
       <c r="Q5" t="n">
         <v>2.9166666666666665</v>
@@ -2484,13 +2478,13 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="S5" t="n">
-        <v>3.0</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
         <v>3.0</v>
       </c>
       <c r="U5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="V5" t="n">
         <v>1.0</v>
@@ -2513,7 +2507,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
         <v>40.0</v>
@@ -2522,10 +2516,10 @@
         <v>44.0</v>
       </c>
       <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
         <v>79</v>
-      </c>
-      <c r="F6" t="s">
-        <v>80</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
@@ -2534,13 +2528,13 @@
         <v>7.0</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J6" t="n">
         <v>-0.19444444444444464</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.25555555555555554</v>
+        <v>-0.05555555555555558</v>
       </c>
       <c r="L6" t="n">
         <v>160.0</v>
@@ -2552,10 +2546,10 @@
         <v>167.20000000000002</v>
       </c>
       <c r="O6" t="n">
-        <v>157.5</v>
+        <v>152.5</v>
       </c>
       <c r="P6" t="n">
-        <v>41.44736842105263</v>
+        <v>40.13157894736842</v>
       </c>
       <c r="Q6" t="n">
         <v>3.6944444444444446</v>
@@ -2573,7 +2567,7 @@
         <v>3.0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="W6" t="n">
         <v>8.0</v>
@@ -2582,10 +2576,10 @@
         <v>0.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2593,7 +2587,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
         <v>40.0</v>
@@ -2602,10 +2596,10 @@
         <v>44.0</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -2614,13 +2608,13 @@
         <v>7.0</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J7" t="n">
         <v>0.08333333333333348</v>
       </c>
       <c r="K7" t="n">
-        <v>0.16666666666666663</v>
+        <v>-0.2333333333333334</v>
       </c>
       <c r="L7" t="n">
         <v>160.0</v>
@@ -2653,7 +2647,7 @@
         <v>3.0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.0</v>
+        <v>0.6</v>
       </c>
       <c r="W7" t="n">
         <v>10.0</v>
@@ -2673,7 +2667,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
         <v>40.0</v>
@@ -2682,10 +2676,10 @@
         <v>44.0</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
@@ -2694,7 +2688,7 @@
         <v>7.0</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8" t="n">
         <v>0.2777777777777777</v>
@@ -2753,7 +2747,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="n">
         <v>40.0</v>
@@ -2762,10 +2756,10 @@
         <v>44.0</v>
       </c>
       <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
         <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>80</v>
       </c>
       <c r="G9" t="n">
         <v>1.0</v>
@@ -2774,7 +2768,7 @@
         <v>7.0</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" t="n">
         <v>-0.38888888888888884</v>
@@ -2792,10 +2786,10 @@
         <v>176.0</v>
       </c>
       <c r="O9" t="n">
-        <v>161.5</v>
+        <v>160.5</v>
       </c>
       <c r="P9" t="n">
-        <v>40.375</v>
+        <v>40.125</v>
       </c>
       <c r="Q9" t="n">
         <v>3.888888888888889</v>
@@ -2833,7 +2827,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="n">
         <v>40.0</v>
@@ -2842,10 +2836,10 @@
         <v>44.0</v>
       </c>
       <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
         <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
       </c>
       <c r="G10" t="n">
         <v>1.0</v>
@@ -2854,7 +2848,7 @@
         <v>7.0</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J10" t="n">
         <v>0.36111111111111116</v>
@@ -2924,42 +2918,42 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>86</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>87</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>88</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>89</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>90</v>
-      </c>
-      <c r="L1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -2977,7 +2971,7 @@
         <v>0.7777777777777777</v>
       </c>
       <c r="G2" t="n">
-        <v>0.47777777777777775</v>
+        <v>0.4555555555555556</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -2989,10 +2983,10 @@
         <v>9.0</v>
       </c>
       <c r="K2" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.44</v>
+        <v>23.6</v>
       </c>
     </row>
   </sheetData>
@@ -3014,63 +3008,55 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/example/schedule.xlsx
+++ b/example/schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="299">
   <si>
     <t>01</t>
   </si>
@@ -128,199 +128,790 @@
     <t>Cottle</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
     <t>FT</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>7</t>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>4_2</t>
+  </si>
+  <si>
+    <t>4_1</t>
+  </si>
+  <si>
+    <t>12_2</t>
+  </si>
+  <si>
+    <t>4_3</t>
+  </si>
+  <si>
+    <t>6_3</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>weekhours</t>
+  </si>
+  <si>
+    <t>weekhours_max</t>
+  </si>
+  <si>
+    <t>split_shifts</t>
+  </si>
+  <si>
+    <t>friday_sunday</t>
+  </si>
+  <si>
+    <t>keep_weekends_apart</t>
+  </si>
+  <si>
+    <t>number_of_shifts_factor</t>
+  </si>
+  <si>
+    <t>min_day_hours</t>
+  </si>
+  <si>
+    <t>max_day_hours</t>
+  </si>
+  <si>
+    <t>preferred_day_hours</t>
+  </si>
+  <si>
+    <t>fill_all_days</t>
+  </si>
+  <si>
+    <t>shifts_carryover</t>
+  </si>
+  <si>
+    <t>weekends_carryover</t>
+  </si>
+  <si>
+    <t>hours_min</t>
+  </si>
+  <si>
+    <t>hours_max</t>
+  </si>
+  <si>
+    <t>hours_min_work</t>
+  </si>
+  <si>
+    <t>hours_max_work</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>weekhours_work</t>
+  </si>
+  <si>
+    <t>shifts_target</t>
+  </si>
+  <si>
+    <t>weekends_target</t>
+  </si>
+  <si>
+    <t>shifts</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>nights</t>
+  </si>
+  <si>
+    <t>weekends</t>
+  </si>
+  <si>
+    <t>requests_granted</t>
+  </si>
+  <si>
+    <t>requests_denied</t>
+  </si>
+  <si>
+    <t>soft_requests_granted</t>
+  </si>
+  <si>
+    <t>soft_requests_denied</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>n.unresolved</t>
+  </si>
+  <si>
+    <t>n.requests_denied</t>
+  </si>
+  <si>
+    <t>n.soft_requests</t>
+  </si>
+  <si>
+    <t>n.soft_requests_granted</t>
+  </si>
+  <si>
+    <t>range.shifts</t>
+  </si>
+  <si>
+    <t>range.weekends</t>
+  </si>
+  <si>
+    <t>range.nights</t>
+  </si>
+  <si>
+    <t>n.splittable</t>
+  </si>
+  <si>
+    <t>n.split</t>
+  </si>
+  <si>
+    <t>day_presence_missing</t>
+  </si>
+  <si>
+    <t>day_presence_missing.squared</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>warnings</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>4_2</t>
-  </si>
-  <si>
-    <t>4_1</t>
-  </si>
-  <si>
-    <t>12_2</t>
-  </si>
-  <si>
-    <t>4_3</t>
-  </si>
-  <si>
-    <t>6_3</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>ward</t>
-  </si>
-  <si>
-    <t>weekhours</t>
-  </si>
-  <si>
-    <t>weekhours_max</t>
-  </si>
-  <si>
-    <t>split_shifts</t>
-  </si>
-  <si>
-    <t>friday_sunday</t>
-  </si>
-  <si>
-    <t>number_of_shifts_factor</t>
-  </si>
-  <si>
-    <t>long_day_hours</t>
-  </si>
-  <si>
-    <t>fill_all_days</t>
-  </si>
-  <si>
-    <t>shifts_carryover</t>
-  </si>
-  <si>
-    <t>weekends_carryover</t>
-  </si>
-  <si>
-    <t>hours_min</t>
-  </si>
-  <si>
-    <t>hours_min_work</t>
-  </si>
-  <si>
-    <t>hours_max_work</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>weekhours_work</t>
-  </si>
-  <si>
-    <t>shifts_target</t>
-  </si>
-  <si>
-    <t>weekends_target</t>
-  </si>
-  <si>
-    <t>shifts</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>nights</t>
-  </si>
-  <si>
-    <t>weekends</t>
-  </si>
-  <si>
-    <t>requests_granted</t>
-  </si>
-  <si>
-    <t>requests_denied</t>
-  </si>
-  <si>
-    <t>soft_requests_granted</t>
-  </si>
-  <si>
-    <t>soft_requests_denied</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>n.unresolved</t>
-  </si>
-  <si>
-    <t>n.requests_denied</t>
-  </si>
-  <si>
-    <t>n.soft_requests</t>
-  </si>
-  <si>
-    <t>n.soft_requests_granted</t>
-  </si>
-  <si>
-    <t>range.shifts</t>
-  </si>
-  <si>
-    <t>range.weekends</t>
-  </si>
-  <si>
-    <t>range.nights</t>
-  </si>
-  <si>
-    <t>n.splittable</t>
-  </si>
-  <si>
-    <t>n.split</t>
-  </si>
-  <si>
-    <t>day_presence_missing</t>
-  </si>
-  <si>
-    <t>day_presence_missing.squared</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>warnings</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
   <si>
     <t>2019-02-07: No split possible based on provisional day presence</t>
   </si>
   <si>
-    <t>2019-02-08: No split possible based on provisional day presence</t>
-  </si>
-  <si>
-    <t>2019-02-22: No split possible based on provisional day presence</t>
-  </si>
-  <si>
     <t>2019-02-04: No split possible based on provisional day presence</t>
   </si>
   <si>
+    <t>2019-02-06: No split possible based on provisional day presence</t>
+  </si>
+  <si>
     <t>2019-02-05: No split possible based on provisional day presence</t>
   </si>
   <si>
     <t>2019-02-12: No split possible based on provisional day presence</t>
+  </si>
+  <si>
+    <t>2019-02-07: ward min presence: Culber: 80 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-06: ward min presence: Culber: 85 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-22: ward min presence: McCoy: 71 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-18: ward min presence: McCoy: 76 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-13: ward min presence: McCoy: 81 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-12: ward min presence: McCoy: 86 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-05: ward min presence: Culber: 90 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-26: ward min presence: McCoy: 91 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-22: ward min presence: Culber: 95 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-08: ward min presence: Culber: 100 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-01: ward min presence: McCoy: 96 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-27: ward min presence: McCoy: 101 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-21: ward min presence: McCoy: 106 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-28: ward min presence: Crusher: 105 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-13: ward min presence: Crusher: 110 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-05: ward min presence: Crusher: 115 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-06: ward min presence: Crusher: 120 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-18: ward min presence: Crusher: 125 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-21: ward min presence: Crusher: 130 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-27: ward min presence: Crusher: 135 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-19: ward min presence: Crusher: 140 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-20: ward min presence: Crusher: 145 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-14: ward min presence: Crusher: 150 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-22: ward min presence: Crusher: 155 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-15: ward min presence: Crusher: 160 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-12: ward min presence: Crusher: 165 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-04: ward min presence: Crusher: 170 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-22: ward min presence: Franklin: 92.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-04: ward min presence: Franklin: 97.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-21: ward min presence: Pulaski: 76.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-20: ward min presence: Franklin: 102.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-28: ward min presence: Phlox: 80 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-01: ward min presence: Franklin: 107.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-25: ward min presence: Pulaski: 81.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-22: ward min presence: Phlox: 85 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-05: ward min presence: Franklin: 112.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-08: ward min presence: Franklin: 117.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-21: ward min presence: Phlox: 90 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-11: ward min presence: Franklin: 122.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-20: ward min presence: Pulaski: 86.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-07: ward min presence: Franklin: 127.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-15: ward min presence: Pulaski: 91.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-28: ward min presence: Pulaski: 96.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-01: ward min presence: Phlox: 95 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-13: ward min presence: Phlox: 100 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-25: ward min presence: Franklin: 132.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-22: ward min presence: Pulaski: 101.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-19: ward min presence: Franklin: 137.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-21: ward min presence: Franklin: 142.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-11: ward min presence: Phlox: 105 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-26: ward min presence: Pulaski: 106.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-15: ward min presence: Phlox: 110 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-12: ward min presence: Phlox: 115 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-13: ward min presence: Pulaski: 111.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-25: ward min presence: Phlox: 120 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-14: ward min presence: Phlox: 125 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-25: ward min presence: TheDoctor: 92.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-08: ward min presence: TheDoctor: 97.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-27: ward min presence: Bashir: 80 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-12: ward min presence: TheDoctor: 102.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-25: ward min presence: Bashir: 85 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-28: ward min presence: TheDoctor: 107.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-08: ward min presence: Bashir: 90 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-19: ward min presence: TheDoctor: 112.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-20: ward min presence: TheDoctor: 117.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-14: ward min presence: TheDoctor: 122.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-26: ward min presence: Bashir: 95 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-27: ward min presence: TheDoctor: 127.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-21: ward min presence: Bashir: 100 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-07: ward min presence: TheDoctor: 132.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-04: ward min presence: TheDoctor: 137.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-11: ward min presence: TheDoctor: 142.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-28: ward min presence: Bashir: 105 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-19: ward min presence: Bashir: 110 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-20: ward min presence: Bashir: 115 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-05: ward min presence: Bashir: 120 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-18: ward min presence: TheDoctor: 147.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-26: ward min presence: TheDoctor: 152.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-11: ward min presence: Cottle: 67.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-12: ward min presence: Cottle: 72.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-15: ward min presence: Cottle: 77.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-07: ward min presence: Cottle: 82.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-01: ward min presence: Cottle: 87.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-06: total min presence: Cottle: 92.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-14: total min presence: McCoy: 111 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-26: total min presence: Franklin: 147.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-27: total min presence: Culber: 105 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-25: total min presence: Culber: 110 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-01: total min presence: Bashir: 125 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-18: total min presence: Bashir: 130 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-07: min hours (long days): Culber: 112 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-12: min hours (long days): McCoy: 113 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-01: min hours (long days): McCoy: 115 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-26: min hours (long days): McCoy: 117 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-13: min hours (long days): McCoy: 119 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-18: min hours (long days): McCoy: 121 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-04: min hours (long days): Franklin: 150.5 + 3h</t>
+  </si>
+  <si>
+    <t>2019-02-20: min hours (long days): Pulaski: 113.5 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-08: min hours (long days): Franklin: 153.5 + 3h</t>
+  </si>
+  <si>
+    <t>2019-02-05: min hours (long days): Franklin: 156.5 + 3h</t>
+  </si>
+  <si>
+    <t>2019-02-07: min hours (long days): Franklin: 159.5 + 3h</t>
+  </si>
+  <si>
+    <t>2019-02-01: min hours (long days): Franklin: 162.5 + 3h</t>
+  </si>
+  <si>
+    <t>2019-02-28: min hours (long days): Pulaski: 115.5 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-22: min hours (long days): Pulaski: 117.5 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-21: min hours (long days): Pulaski: 119.5 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-19: min hours (long days): Pulaski: 126.5 + 7h</t>
   </si>
 </sst>
 </file>
@@ -337,7 +928,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,18 +1005,103 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="FF0000"/>
+        <fgColor rgb="C2C2C2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="FF0000"/>
+        <fgColor rgb="C2C2C2"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000"/>
+        <fgColor rgb="C2C2C2"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="DDFFDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="DDFFDD"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DDFFDD"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFDDDD"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDD"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="AAFFAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="AAFFAA"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="AAFFAA"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFAAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFAAAA"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAAA"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FF8888"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FF8888"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8888"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
@@ -448,69 +1124,52 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="FFAAAA"/>
+        <fgColor rgb="FFCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="FFAAAA"/>
+        <fgColor rgb="FFCCCC"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAAAA"/>
+        <fgColor rgb="FFCCCC"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="AAFFAA"/>
+        <fgColor rgb="88FF88"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="AAFFAA"/>
+        <fgColor rgb="88FF88"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="AAFFAA"/>
+        <fgColor rgb="88FF88"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="55FF55"/>
+        <fgColor rgb="FF3333"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="55FF55"/>
+        <fgColor rgb="FF3333"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="55FF55"/>
-        <bgColor rgb="ADD8E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="00FF00"/>
-        <bgColor rgb="ADD8E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF00"/>
+        <fgColor rgb="FF3333"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
@@ -595,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
@@ -604,8 +1263,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -616,14 +1274,136 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -669,7 +1449,7 @@
   <sheetData>
     <row r="1" ht="15.0" customHeight="true">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -760,88 +1540,88 @@
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C2" t="s" s="4">
-        <v>39</v>
+      <c r="C2" t="s" s="3">
+        <v>44</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s" s="5">
         <v>38</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s" s="5">
-        <v>37</v>
       </c>
       <c r="Q2" t="s" s="4">
         <v>39</v>
       </c>
       <c r="R2" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="Y2" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="T2" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s" s="4">
+      <c r="Z2" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="V2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="Y2" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC2" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="AC2" t="s" s="7">
         <v>46</v>
       </c>
     </row>
@@ -849,89 +1629,89 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s" s="4">
+      <c r="C3" t="s" s="4">
         <v>39</v>
       </c>
+      <c r="D3" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="F3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s" s="5">
         <v>38</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s" s="5">
-        <v>37</v>
       </c>
       <c r="I3" t="s" s="4">
         <v>39</v>
       </c>
       <c r="J3" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s" s="5">
         <v>38</v>
       </c>
+      <c r="L3" t="s" s="4">
+        <v>39</v>
+      </c>
       <c r="M3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="R3" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X3" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="Y3" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="Z3" t="s" s="5">
         <v>38</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q3" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="R3" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W3" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="X3" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="Y3" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="Z3" t="s" s="5">
-        <v>37</v>
       </c>
       <c r="AA3" t="s" s="4">
         <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
@@ -942,85 +1722,85 @@
         <v>39</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="N4" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s" s="2">
+      <c r="N4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="R4" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="P4" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="Q4" t="s" s="5">
+      <c r="S4" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="T4" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="R4" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="S4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U4" t="s" s="6">
-        <v>46</v>
+      <c r="U4" t="s" s="2">
+        <v>37</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X4" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y4" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB4" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="AB4" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="AC4" t="s" s="4">
-        <v>39</v>
+      <c r="AC4" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
@@ -1028,88 +1808,88 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="C5" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="5">
         <v>38</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s" s="7">
-        <v>45</v>
       </c>
       <c r="H5" t="s" s="4">
         <v>39</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q5" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R5" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="S5" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="T5" t="s" s="6">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X5" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="Y5" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="W5" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s" s="4">
         <v>39</v>
       </c>
+      <c r="Y5" t="s" s="3">
+        <v>44</v>
+      </c>
       <c r="Z5" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB5" t="s" s="6">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
@@ -1117,88 +1897,88 @@
         <v>32</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s" s="4">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="F6" t="s" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s" s="4">
         <v>39</v>
       </c>
       <c r="H6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="O6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P6" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="I6" t="s" s="2">
+      <c r="R6" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V6" t="s" s="5">
         <v>38</v>
-      </c>
-      <c r="J6" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="P6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q6" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="R6" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V6" t="s" s="5">
-        <v>37</v>
       </c>
       <c r="W6" t="s" s="4">
         <v>39</v>
       </c>
       <c r="X6" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y6" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="true">
@@ -1206,88 +1986,88 @@
         <v>33</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q7" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="R7" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="S7" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="T7" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="C7" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s" s="2">
+      <c r="U7" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X7" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="M7" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s" s="4">
+      <c r="Y7" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="O7" t="s" s="2">
+      <c r="Z7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA7" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="P7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q7" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="R7" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="S7" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="T7" t="s" s="4">
+      <c r="AB7" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="U7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X7" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="Y7" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="Z7" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
@@ -1295,87 +2075,87 @@
         <v>34</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s" s="4">
         <v>39</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="O8" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="R8" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="S8" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J8" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="K8" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="L8" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="N8" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="O8" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="P8" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="Q8" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="R8" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="S8" t="s" s="2">
+      <c r="T8" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="U8" t="s" s="5">
         <v>38</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U8" t="s" s="7">
-        <v>45</v>
       </c>
       <c r="V8" t="s" s="4">
         <v>39</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X8" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y8" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA8" t="s" s="6">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="AA8" t="s" s="4">
+        <v>47</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC8" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="AC8" t="s" s="6">
         <v>45</v>
       </c>
     </row>
@@ -1384,13 +2164,13 @@
         <v>35</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s" s="2">
         <v>43</v>
@@ -1398,74 +2178,74 @@
       <c r="F9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="I9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="I9" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s" s="4">
+      <c r="K9" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="K9" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="L9" t="s" s="6">
+      <c r="L9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="O9" t="s" s="7">
         <v>46</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="O9" t="s" s="7">
-        <v>45</v>
       </c>
       <c r="P9" t="s" s="4">
         <v>39</v>
       </c>
       <c r="Q9" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="R9" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="S9" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="R9" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="S9" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X9" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="Y9" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB9" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="AC9" t="s" s="4">
         <v>39</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X9" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="Y9" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA9" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="AB9" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
@@ -1473,216 +2253,216 @@
         <v>36</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s" s="5">
         <v>38</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s" s="5">
-        <v>37</v>
       </c>
       <c r="F10" t="s" s="4">
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J10" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="K10" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="L10" t="s" s="4">
+      <c r="J10" t="s" s="4">
         <v>39</v>
       </c>
+      <c r="K10" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="M10" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O10" t="s" s="4">
         <v>39</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q10" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y10" t="s" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C12" t="n">
+        <v>48</v>
+      </c>
+      <c r="B12" t="n" s="10">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="n" s="16">
+        <v>-1.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="24">
+        <v>-1.0</v>
+      </c>
+      <c r="H12" t="n" s="30">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="42">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="N12" t="n" s="46">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="O12" t="n" s="50">
         <v>1.0</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E12" t="n" s="13">
-        <v>-1.0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="P12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" t="n" s="58">
         <v>0.3999999999999999</v>
       </c>
-      <c r="G12" t="n" s="13">
-        <v>-1.0</v>
-      </c>
-      <c r="H12" t="n" s="13">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="T12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U12" t="n" s="66">
+        <v>1.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" t="n" s="76">
+        <v>1.0</v>
+      </c>
+      <c r="AA12" t="n" s="80">
         <v>0.3999999999999999</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O12" t="n" s="15">
+      <c r="AB12" t="n" s="86">
         <v>1.0</v>
       </c>
-      <c r="P12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="T12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z12" t="n" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="AA12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="AB12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="AC12" t="n" s="15">
+      <c r="AC12" t="n" s="90">
         <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E13" t="n" s="13">
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="34">
         <v>-1.0</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I13" t="n" s="13">
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="n" s="40">
         <v>-1.0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.0</v>
-      </c>
       <c r="M13" t="n">
         <v>0.0</v>
       </c>
@@ -1695,11 +2475,11 @@
       <c r="P13" t="n">
         <v>0.0</v>
       </c>
-      <c r="Q13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.0</v>
+      <c r="Q13" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" t="s">
+        <v>44</v>
       </c>
       <c r="S13" t="n">
         <v>0.0</v>
@@ -1716,16 +2496,16 @@
       <c r="W13" t="n">
         <v>0.0</v>
       </c>
-      <c r="X13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.0</v>
+      <c r="X13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>44</v>
       </c>
       <c r="Z13" t="n">
         <v>0.0</v>
       </c>
-      <c r="AA13" t="n" s="13">
+      <c r="AA13" t="n" s="82">
         <v>-1.0</v>
       </c>
       <c r="AB13" t="n">
@@ -1737,202 +2517,202 @@
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="n" s="13">
+        <v>50</v>
+      </c>
+      <c r="B14" t="n" s="12">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="n" s="18">
+        <v>-1.4</v>
+      </c>
+      <c r="F14" t="n" s="20">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="G14" t="n" s="26">
+        <v>-2.0</v>
+      </c>
+      <c r="H14" t="n" s="32">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="I14" t="n" s="36">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" t="n" s="60">
         <v>-1.0</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E14" t="n" s="11">
-        <v>-1.6</v>
-      </c>
-      <c r="F14" t="n" s="13">
+      <c r="T14" t="n" s="64">
+        <v>1.4</v>
+      </c>
+      <c r="U14" t="n" s="68">
         <v>-0.6000000000000001</v>
       </c>
-      <c r="G14" t="n" s="13">
+      <c r="V14" t="n" s="70">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W14" t="n" s="72">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA14" t="n" s="84">
+        <v>1.0</v>
+      </c>
+      <c r="AB14" t="n" s="88">
+        <v>-1.0</v>
+      </c>
+      <c r="AC14" t="n" s="92">
         <v>-0.6000000000000001</v>
-      </c>
-      <c r="H14" t="n" s="13">
-        <v>-1.0</v>
-      </c>
-      <c r="I14" t="n" s="13">
-        <v>-1.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P14" t="n" s="13">
-        <v>-1.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z14" t="n" s="13">
-        <v>-0.20000000000000018</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB14" t="n" s="13">
-        <v>-1.0</v>
-      </c>
-      <c r="AC14" t="n" s="13">
-        <v>-1.0</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
       <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="n" s="15">
+        <v>51</v>
+      </c>
+      <c r="B15" t="n" s="14">
         <v>1.0</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0</v>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
       </c>
       <c r="E15" t="n">
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="G15" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="38">
         <v>-1.0</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I15" t="n" s="13">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="44">
+        <v>-1.0</v>
+      </c>
+      <c r="N15" t="n" s="48">
+        <v>-1.0</v>
+      </c>
+      <c r="O15" t="n" s="52">
+        <v>-1.0</v>
+      </c>
+      <c r="P15" t="n" s="56">
+        <v>-1.0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" t="n" s="62">
         <v>1.0</v>
       </c>
-      <c r="K15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M15" t="n" s="13">
+      <c r="T15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W15" t="n" s="74">
         <v>-1.0</v>
       </c>
-      <c r="N15" t="n" s="13">
+      <c r="X15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15" t="n" s="78">
         <v>-1.0</v>
       </c>
-      <c r="O15" t="n" s="13">
-        <v>-1.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="W15" t="n" s="13">
-        <v>-0.8</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z15" t="n" s="13">
-        <v>-0.7999999999999998</v>
-      </c>
       <c r="AA15" t="n">
-        <v>0.20000000000000018</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" t="n">
         <v>0.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.20000000000000018</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0</v>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
       </c>
-      <c r="F16" t="n" s="13">
+      <c r="F16" t="n" s="22">
         <v>-1.0</v>
       </c>
-      <c r="G16" t="n" s="15">
+      <c r="G16" t="n" s="28">
         <v>1.0</v>
       </c>
       <c r="H16" t="n">
@@ -1941,32 +2721,32 @@
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L16" t="n" s="13">
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="54">
         <v>-1.0</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O16" t="n" s="13">
-        <v>-1.0</v>
-      </c>
       <c r="P16" t="n">
         <v>0.0</v>
       </c>
-      <c r="Q16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.0</v>
+      <c r="Q16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" t="s">
+        <v>44</v>
       </c>
       <c r="S16" t="n">
         <v>0.0</v>
@@ -1983,11 +2763,11 @@
       <c r="W16" t="n">
         <v>0.0</v>
       </c>
-      <c r="X16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.0</v>
+      <c r="X16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>44</v>
       </c>
       <c r="Z16" t="n">
         <v>0.0</v>
@@ -2004,91 +2784,91 @@
     </row>
     <row r="17" ht="15.0" customHeight="true">
       <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="n" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="C17" t="n" s="27">
+        <v>44</v>
+      </c>
+      <c r="B17" t="n" s="97">
         <v>1.0</v>
       </c>
-      <c r="D17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="E17" t="n" s="20">
-        <v>-3.6</v>
-      </c>
-      <c r="F17" t="n" s="22">
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="n" s="100">
+        <v>-2.4</v>
+      </c>
+      <c r="F17" t="n" s="103">
+        <v>-1.4</v>
+      </c>
+      <c r="G17" t="n" s="106">
+        <v>-2.0</v>
+      </c>
+      <c r="H17" t="n" s="109">
         <v>-1.0</v>
       </c>
-      <c r="G17" t="n" s="21">
-        <v>-1.6</v>
-      </c>
-      <c r="H17" t="n" s="21">
-        <v>-1.6</v>
-      </c>
-      <c r="I17" t="n" s="20">
+      <c r="I17" t="n" s="112">
         <v>-2.4</v>
       </c>
-      <c r="J17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="K17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="L17" t="n" s="22">
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" t="n" s="115">
         <v>-1.0</v>
       </c>
-      <c r="M17" t="n" s="22">
+      <c r="M17" t="n" s="118">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="N17" t="n" s="121">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="O17" t="n" s="124">
         <v>-1.0</v>
       </c>
-      <c r="N17" t="n" s="22">
+      <c r="P17" t="n" s="127">
         <v>-1.0</v>
       </c>
-      <c r="O17" t="n" s="22">
-        <v>-1.0</v>
-      </c>
-      <c r="P17" t="n" s="22">
-        <v>-1.0</v>
-      </c>
-      <c r="Q17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="R17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="S17" t="n" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="T17" t="n" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="U17" t="n" s="27">
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="V17" t="n" s="27">
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="W17" t="n" s="22">
-        <v>-0.8</v>
-      </c>
-      <c r="X17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Y17" t="n" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="Z17" t="n" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="AA17" t="n" s="27">
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="AB17" t="n" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AC17" t="n" s="27">
-        <v>0.20000000000000018</v>
+      <c r="Q17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17" t="n" s="130">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="T17" t="n" s="133">
+        <v>1.4</v>
+      </c>
+      <c r="U17" t="n" s="136">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="V17" t="n" s="139">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W17" t="n" s="142">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="X17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z17" t="n" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="AA17" t="n" s="145">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AB17" t="n" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="AC17" t="n" s="148">
+        <v>0.3999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2107,79 +2887,91 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2">
@@ -2187,7 +2979,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
         <v>40.0</v>
@@ -2196,70 +2988,82 @@
         <v>44.0</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
+      <c r="I2" t="n">
+        <v>5.0</v>
       </c>
       <c r="J2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.08333333333333348</v>
       </c>
-      <c r="K2" t="n">
-        <v>-0.033333333333333326</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="O2" t="n">
         <v>160.0</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>120.0</v>
       </c>
-      <c r="N2" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41.666666666666664</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>40.333333333333336</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.9166666666666665</v>
       </c>
-      <c r="R2" t="n">
+      <c r="V2" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="S2" t="n">
+      <c r="W2" t="n">
         <v>3.0</v>
       </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
         <v>3.0</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
         <v>3.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W2" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.0</v>
       </c>
       <c r="Z2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -2267,7 +3071,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
         <v>40.0</v>
@@ -2276,70 +3080,82 @@
         <v>44.0</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>78</v>
+      <c r="I3" t="n">
+        <v>5.0</v>
       </c>
       <c r="J3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.11111111111111116</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>-0.11111111111111116</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>160.0</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>160.0</v>
       </c>
-      <c r="N3" t="n">
+      <c r="R3" t="n">
         <v>176.0</v>
       </c>
-      <c r="O3" t="n">
+      <c r="S3" t="n">
         <v>170.0</v>
       </c>
-      <c r="P3" t="n">
+      <c r="T3" t="n">
         <v>42.5</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="U3" t="n">
         <v>3.888888888888889</v>
       </c>
-      <c r="R3" t="n">
+      <c r="V3" t="n">
         <v>1.1111111111111112</v>
       </c>
-      <c r="S3" t="n">
+      <c r="W3" t="n">
         <v>4.0</v>
       </c>
-      <c r="T3" t="n">
+      <c r="X3" t="n">
         <v>4.0</v>
       </c>
-      <c r="U3" t="n">
+      <c r="Y3" t="n">
         <v>4.0</v>
       </c>
-      <c r="V3" t="n">
+      <c r="Z3" t="n">
         <v>1.0</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AA3" t="n">
         <v>1.0</v>
       </c>
-      <c r="X3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.0</v>
+      <c r="AB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -2347,7 +3163,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
         <v>40.0</v>
@@ -2356,69 +3172,81 @@
         <v>44.0</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.0</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J4" t="n">
         <v>7.0</v>
       </c>
-      <c r="I4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.08333333333333348</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="K4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.4166666666666665</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.2333333333333334</v>
+      </c>
+      <c r="O4" t="n">
         <v>160.0</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>120.0</v>
       </c>
-      <c r="N4" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>40.333333333333336</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>42.166666666666664</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.9166666666666665</v>
       </c>
-      <c r="R4" t="n">
+      <c r="V4" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="S4" t="n">
+      <c r="W4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X4" t="n">
         <v>3.0</v>
       </c>
-      <c r="T4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="Y4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC4" t="n">
         <v>1.0</v>
       </c>
-      <c r="W4" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AD4" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2427,7 +3255,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
         <v>40.0</v>
@@ -2436,69 +3264,81 @@
         <v>44.0</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.0</v>
       </c>
-      <c r="H5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
+      <c r="I5" t="n">
+        <v>5.0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4166666666666665</v>
-      </c>
-      <c r="K5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.08333333333333348</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.16666666666666663</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>160.0</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>120.0</v>
       </c>
-      <c r="N5" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>120.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>40.166666666666664</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.9166666666666665</v>
       </c>
-      <c r="R5" t="n">
+      <c r="V5" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="S5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T5" t="n">
+      <c r="W5" t="n">
         <v>3.0</v>
       </c>
-      <c r="U5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z5" t="n">
         <v>1.0</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AA5" t="n">
         <v>13.0</v>
       </c>
-      <c r="X5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD5" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2507,7 +3347,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="n">
         <v>40.0</v>
@@ -2516,70 +3356,82 @@
         <v>44.0</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.0</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J6" t="n">
         <v>7.0</v>
       </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
         <v>-0.19444444444444464</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>-0.05555555555555558</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>160.0</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>152.0</v>
       </c>
-      <c r="N6" t="n">
-        <v>167.20000000000002</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="S6" t="n">
         <v>152.5</v>
       </c>
-      <c r="P6" t="n">
+      <c r="T6" t="n">
         <v>40.13157894736842</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="U6" t="n">
         <v>3.6944444444444446</v>
       </c>
-      <c r="R6" t="n">
+      <c r="V6" t="n">
         <v>1.0555555555555556</v>
       </c>
-      <c r="S6" t="n">
+      <c r="W6" t="n">
         <v>3.5</v>
       </c>
-      <c r="T6" t="n">
+      <c r="X6" t="n">
         <v>4.0</v>
       </c>
-      <c r="U6" t="n">
+      <c r="Y6" t="n">
         <v>3.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2.0</v>
       </c>
       <c r="Z6" t="n">
         <v>1.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -2587,7 +3439,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
         <v>40.0</v>
@@ -2596,69 +3448,81 @@
         <v>44.0</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.0</v>
       </c>
-      <c r="H7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>79</v>
+      <c r="I7" t="n">
+        <v>5.0</v>
       </c>
       <c r="J7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.08333333333333348</v>
       </c>
-      <c r="K7" t="n">
-        <v>-0.2333333333333334</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="O7" t="n">
         <v>160.0</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>120.0</v>
       </c>
-      <c r="N7" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="S7" t="n">
         <v>125.0</v>
       </c>
-      <c r="P7" t="n">
+      <c r="T7" t="n">
         <v>41.666666666666664</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="U7" t="n">
         <v>2.9166666666666665</v>
       </c>
-      <c r="R7" t="n">
+      <c r="V7" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="S7" t="n">
+      <c r="W7" t="n">
         <v>3.0</v>
       </c>
-      <c r="T7" t="n">
+      <c r="X7" t="n">
         <v>3.0</v>
       </c>
-      <c r="U7" t="n">
+      <c r="Y7" t="n">
         <v>3.0</v>
       </c>
-      <c r="V7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="Z7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>10.0</v>
       </c>
-      <c r="X7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD7" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2667,7 +3531,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="n">
         <v>40.0</v>
@@ -2676,69 +3540,81 @@
         <v>44.0</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.0</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J8" t="n">
         <v>7.0</v>
       </c>
-      <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.2777777777777777</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>160.0</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>112.0</v>
       </c>
-      <c r="N8" t="n">
-        <v>123.20000000000002</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="R8" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="S8" t="n">
         <v>112.0</v>
       </c>
-      <c r="P8" t="n">
+      <c r="T8" t="n">
         <v>40.0</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="U8" t="n">
         <v>2.7222222222222223</v>
       </c>
-      <c r="R8" t="n">
+      <c r="V8" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="S8" t="n">
+      <c r="W8" t="n">
         <v>3.0</v>
       </c>
-      <c r="T8" t="n">
+      <c r="X8" t="n">
         <v>3.0</v>
       </c>
-      <c r="U8" t="n">
+      <c r="Y8" t="n">
         <v>3.0</v>
       </c>
-      <c r="V8" t="n">
+      <c r="Z8" t="n">
         <v>1.0</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AA8" t="n">
         <v>12.0</v>
       </c>
-      <c r="X8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD8" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2747,7 +3623,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n">
         <v>40.0</v>
@@ -2756,69 +3632,81 @@
         <v>44.0</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.0</v>
       </c>
-      <c r="H9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>79</v>
+      <c r="I9" t="n">
+        <v>5.0</v>
       </c>
       <c r="J9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" t="n">
         <v>-0.38888888888888884</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
         <v>-0.11111111111111116</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>160.0</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>160.0</v>
       </c>
-      <c r="N9" t="n">
+      <c r="R9" t="n">
         <v>176.0</v>
       </c>
-      <c r="O9" t="n">
-        <v>160.5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>40.125</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>40.625</v>
+      </c>
+      <c r="U9" t="n">
         <v>3.888888888888889</v>
       </c>
-      <c r="R9" t="n">
+      <c r="V9" t="n">
         <v>1.1111111111111112</v>
       </c>
-      <c r="S9" t="n">
+      <c r="W9" t="n">
         <v>3.5</v>
       </c>
-      <c r="T9" t="n">
+      <c r="X9" t="n">
         <v>3.0</v>
       </c>
-      <c r="U9" t="n">
+      <c r="Y9" t="n">
         <v>4.0</v>
       </c>
-      <c r="V9" t="n">
+      <c r="Z9" t="n">
         <v>1.0</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AA9" t="n">
         <v>2.0</v>
       </c>
-      <c r="X9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD9" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2827,7 +3715,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="n">
         <v>40.0</v>
@@ -2836,69 +3724,81 @@
         <v>44.0</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.0</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J10" t="n">
         <v>7.0</v>
       </c>
-      <c r="I10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.36111111111111116</v>
       </c>
-      <c r="K10" t="n">
-        <v>-0.011111111111111183</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
+        <v>-0.21111111111111114</v>
+      </c>
+      <c r="O10" t="n">
         <v>160.0</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>88.0</v>
       </c>
-      <c r="N10" t="n">
-        <v>96.80000000000001</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="R10" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="S10" t="n">
         <v>92.5</v>
       </c>
-      <c r="P10" t="n">
+      <c r="T10" t="n">
         <v>42.04545454545455</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="U10" t="n">
         <v>2.138888888888889</v>
       </c>
-      <c r="R10" t="n">
+      <c r="V10" t="n">
         <v>0.6111111111111112</v>
       </c>
-      <c r="S10" t="n">
+      <c r="W10" t="n">
         <v>2.5</v>
       </c>
-      <c r="T10" t="n">
+      <c r="X10" t="n">
         <v>2.0</v>
       </c>
-      <c r="U10" t="n">
+      <c r="Y10" t="n">
         <v>3.0</v>
       </c>
-      <c r="V10" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="Z10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA10" t="n">
         <v>18.0</v>
       </c>
-      <c r="X10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2918,42 +3818,42 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -2965,7 +3865,7 @@
         <v>7.0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.7777777777777777</v>
@@ -2980,13 +3880,13 @@
         <v>16.0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.0</v>
+        <v>22.8</v>
       </c>
       <c r="L2" t="n">
-        <v>23.6</v>
+        <v>23.68</v>
       </c>
     </row>
   </sheetData>
@@ -3008,55 +3908,895 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>179</v>
+      </c>
+      <c r="B104" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>181</v>
+      </c>
+      <c r="B106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>182</v>
+      </c>
+      <c r="B107" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>184</v>
+      </c>
+      <c r="B109" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>187</v>
+      </c>
+      <c r="B112" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/example/schedule.xlsx
+++ b/example/schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="281">
   <si>
     <t>01</t>
   </si>
@@ -134,201 +134,189 @@
     <t>N</t>
   </si>
   <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>FT</t>
+    <t/>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>4_2_4_1</t>
+  </si>
+  <si>
+    <t>4_3</t>
+  </si>
+  <si>
+    <t>12_2_6_3</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>weekhours_min</t>
+  </si>
+  <si>
+    <t>weekhours_max</t>
+  </si>
+  <si>
+    <t>split_shifts</t>
+  </si>
+  <si>
+    <t>friday_sunday</t>
+  </si>
+  <si>
+    <t>keep_weekends_apart</t>
+  </si>
+  <si>
+    <t>number_of_shifts_factor</t>
+  </si>
+  <si>
+    <t>min_day_hours</t>
+  </si>
+  <si>
+    <t>max_day_hours</t>
+  </si>
+  <si>
+    <t>preferred_day_hours</t>
+  </si>
+  <si>
+    <t>fill_all_days</t>
+  </si>
+  <si>
+    <t>shifts_carryover</t>
+  </si>
+  <si>
+    <t>weekends_carryover</t>
+  </si>
+  <si>
+    <t>hours_min</t>
+  </si>
+  <si>
+    <t>hours_max</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>weekhours</t>
+  </si>
+  <si>
+    <t>shifts_target</t>
+  </si>
+  <si>
+    <t>weekends_target</t>
+  </si>
+  <si>
+    <t>shifts</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>nights</t>
+  </si>
+  <si>
+    <t>weekends</t>
+  </si>
+  <si>
+    <t>requests_granted</t>
+  </si>
+  <si>
+    <t>requests_denied</t>
+  </si>
+  <si>
+    <t>soft_requests_granted</t>
+  </si>
+  <si>
+    <t>soft_requests_denied</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>n.unresolved</t>
+  </si>
+  <si>
+    <t>n.requests_denied</t>
+  </si>
+  <si>
+    <t>n.soft_requests</t>
+  </si>
+  <si>
+    <t>n.soft_requests_granted</t>
+  </si>
+  <si>
+    <t>range.shifts</t>
+  </si>
+  <si>
+    <t>range.weekends</t>
+  </si>
+  <si>
+    <t>range.nights</t>
+  </si>
+  <si>
+    <t>n.splittable</t>
+  </si>
+  <si>
+    <t>n.split</t>
+  </si>
+  <si>
+    <t>day_presence_missing</t>
+  </si>
+  <si>
+    <t>day_presence_missing.squared</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>warnings</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>4_2</t>
-  </si>
-  <si>
-    <t>4_1</t>
-  </si>
-  <si>
-    <t>12_2</t>
-  </si>
-  <si>
-    <t>4_3</t>
-  </si>
-  <si>
-    <t>6_3</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>ward</t>
-  </si>
-  <si>
-    <t>weekhours</t>
-  </si>
-  <si>
-    <t>weekhours_max</t>
-  </si>
-  <si>
-    <t>split_shifts</t>
-  </si>
-  <si>
-    <t>friday_sunday</t>
-  </si>
-  <si>
-    <t>keep_weekends_apart</t>
-  </si>
-  <si>
-    <t>number_of_shifts_factor</t>
-  </si>
-  <si>
-    <t>min_day_hours</t>
-  </si>
-  <si>
-    <t>max_day_hours</t>
-  </si>
-  <si>
-    <t>preferred_day_hours</t>
-  </si>
-  <si>
-    <t>fill_all_days</t>
-  </si>
-  <si>
-    <t>shifts_carryover</t>
-  </si>
-  <si>
-    <t>weekends_carryover</t>
-  </si>
-  <si>
-    <t>hours_min</t>
-  </si>
-  <si>
-    <t>hours_max</t>
-  </si>
-  <si>
-    <t>hours_min_work</t>
-  </si>
-  <si>
-    <t>hours_max_work</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>weekhours_work</t>
-  </si>
-  <si>
-    <t>shifts_target</t>
-  </si>
-  <si>
-    <t>weekends_target</t>
-  </si>
-  <si>
-    <t>shifts</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>nights</t>
-  </si>
-  <si>
-    <t>weekends</t>
-  </si>
-  <si>
-    <t>requests_granted</t>
-  </si>
-  <si>
-    <t>requests_denied</t>
-  </si>
-  <si>
-    <t>soft_requests_granted</t>
-  </si>
-  <si>
-    <t>soft_requests_denied</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>n.unresolved</t>
-  </si>
-  <si>
-    <t>n.requests_denied</t>
-  </si>
-  <si>
-    <t>n.soft_requests</t>
-  </si>
-  <si>
-    <t>n.soft_requests_granted</t>
-  </si>
-  <si>
-    <t>range.shifts</t>
-  </si>
-  <si>
-    <t>range.weekends</t>
-  </si>
-  <si>
-    <t>range.nights</t>
-  </si>
-  <si>
-    <t>n.splittable</t>
-  </si>
-  <si>
-    <t>n.split</t>
-  </si>
-  <si>
-    <t>day_presence_missing</t>
-  </si>
-  <si>
-    <t>day_presence_missing.squared</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>warnings</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -560,28 +548,7 @@
     <t>104</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>2019-02-07: No split possible based on provisional day presence</t>
+    <t>2019-02-11: No split possible based on provisional day presence</t>
   </si>
   <si>
     <t>2019-02-04: No split possible based on provisional day presence</t>
@@ -596,322 +563,301 @@
     <t>2019-02-12: No split possible based on provisional day presence</t>
   </si>
   <si>
-    <t>2019-02-07: ward min presence: Culber: 80 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-06: ward min presence: Culber: 85 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-22: ward min presence: McCoy: 71 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-18: ward min presence: McCoy: 76 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-13: ward min presence: McCoy: 81 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-12: ward min presence: McCoy: 86 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-05: ward min presence: Culber: 90 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-26: ward min presence: McCoy: 91 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-22: ward min presence: Culber: 95 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-08: ward min presence: Culber: 100 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-01: ward min presence: McCoy: 96 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-27: ward min presence: McCoy: 101 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-21: ward min presence: McCoy: 106 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-28: ward min presence: Crusher: 105 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-13: ward min presence: Crusher: 110 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-05: ward min presence: Crusher: 115 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-06: ward min presence: Crusher: 120 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-18: ward min presence: Crusher: 125 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-21: ward min presence: Crusher: 130 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-27: ward min presence: Crusher: 135 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-19: ward min presence: Crusher: 140 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-20: ward min presence: Crusher: 145 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-14: ward min presence: Crusher: 150 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-22: ward min presence: Crusher: 155 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-15: ward min presence: Crusher: 160 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-12: ward min presence: Crusher: 165 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-04: ward min presence: Crusher: 170 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-22: ward min presence: Franklin: 92.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-04: ward min presence: Franklin: 97.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-21: ward min presence: Pulaski: 76.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-20: ward min presence: Franklin: 102.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-28: ward min presence: Phlox: 80 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-01: ward min presence: Franklin: 107.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-25: ward min presence: Pulaski: 81.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-22: ward min presence: Phlox: 85 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-05: ward min presence: Franklin: 112.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-08: ward min presence: Franklin: 117.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-21: ward min presence: Phlox: 90 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-11: ward min presence: Franklin: 122.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-20: ward min presence: Pulaski: 86.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-07: ward min presence: Franklin: 127.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-15: ward min presence: Pulaski: 91.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-28: ward min presence: Pulaski: 96.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-01: ward min presence: Phlox: 95 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-13: ward min presence: Phlox: 100 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-25: ward min presence: Franklin: 132.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-22: ward min presence: Pulaski: 101.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-19: ward min presence: Franklin: 137.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-21: ward min presence: Franklin: 142.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-11: ward min presence: Phlox: 105 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-26: ward min presence: Pulaski: 106.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-15: ward min presence: Phlox: 110 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-12: ward min presence: Phlox: 115 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-13: ward min presence: Pulaski: 111.5 + 5h</t>
+    <t>2019-02-05: ward min presence: Pulaski: 115.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-27: ward min presence: Crusher: 105 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-18: ward min presence: Crusher: 110 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-19: ward min presence: Crusher: 115 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-20: ward min presence: Crusher: 120 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-25: ward min presence: McCoy: 111 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-12: ward min presence: McCoy: 116 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-21: ward min presence: Pulaski: 120.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-22: ward min presence: McCoy: 121 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-13: ward min presence: Crusher: 125 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-28: ward min presence: Pulaski: 125.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-14: ward min presence: McCoy: 126 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-08: ward min presence: Pulaski: 130.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-27: ward min presence: McCoy: 131 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-18: ward min presence: Pulaski: 135.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-19: ward min presence: Pulaski: 140.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-20: ward min presence: Pulaski: 145.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-25: ward min presence: Crusher: 130 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-12: ward min presence: Crusher: 135 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-11: ward min presence: Crusher: 140 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-21: ward min presence: McCoy: 136 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-22: ward min presence: Crusher: 145 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-01: ward min presence: McCoy: 141 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-13: ward min presence: McCoy: 146 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-28: ward min presence: Crusher: 150 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-26: ward min presence: Crusher: 155 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-14: ward min presence: Crusher: 160 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-06: ward min presence: Crusher: 165 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-08: ward min presence: Bashir: 120 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-20: ward min presence: TheDoctor: 100.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-12: ward min presence: TheDoctor: 105.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-04: ward min presence: TheDoctor: 110.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-13: ward min presence: TheDoctor: 115.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-18: ward min presence: TheDoctor: 120.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-06: ward min presence: Bashir: 125 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-26: ward min presence: TheDoctor: 125.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-14: ward min presence: TheDoctor: 130.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-07: ward min presence: Bashir: 130 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-01: ward min presence: Bashir: 135 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-15: ward min presence: TheDoctor: 135.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-27: ward min presence: Bashir: 140 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-19: ward min presence: TheDoctor: 140.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-11: ward min presence: TheDoctor: 145.5 + 5h</t>
   </si>
   <si>
     <t>2019-02-25: ward min presence: Phlox: 120 + 5h</t>
   </si>
   <si>
-    <t>2019-02-14: ward min presence: Phlox: 125 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-25: ward min presence: TheDoctor: 92.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-08: ward min presence: TheDoctor: 97.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-27: ward min presence: Bashir: 80 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-12: ward min presence: TheDoctor: 102.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-25: ward min presence: Bashir: 85 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-28: ward min presence: TheDoctor: 107.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-08: ward min presence: Bashir: 90 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-19: ward min presence: TheDoctor: 112.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-20: ward min presence: TheDoctor: 117.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-14: ward min presence: TheDoctor: 122.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-26: ward min presence: Bashir: 95 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-27: ward min presence: TheDoctor: 127.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-21: ward min presence: Bashir: 100 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-07: ward min presence: TheDoctor: 132.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-04: ward min presence: TheDoctor: 137.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-11: ward min presence: TheDoctor: 142.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-28: ward min presence: Bashir: 105 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-19: ward min presence: Bashir: 110 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-20: ward min presence: Bashir: 115 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-05: ward min presence: Bashir: 120 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-18: ward min presence: TheDoctor: 147.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-26: ward min presence: TheDoctor: 152.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-11: ward min presence: Cottle: 67.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-12: ward min presence: Cottle: 72.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-15: ward min presence: Cottle: 77.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-07: ward min presence: Cottle: 82.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-01: ward min presence: Cottle: 87.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-06: total min presence: Cottle: 92.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-14: total min presence: McCoy: 111 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-26: total min presence: Franklin: 147.5 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-27: total min presence: Culber: 105 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-25: total min presence: Culber: 110 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-01: total min presence: Bashir: 125 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-18: total min presence: Bashir: 130 + 5h</t>
-  </si>
-  <si>
-    <t>2019-02-07: min hours (long days): Culber: 112 + 2h</t>
-  </si>
-  <si>
-    <t>2019-02-12: min hours (long days): McCoy: 113 + 2h</t>
-  </si>
-  <si>
-    <t>2019-02-01: min hours (long days): McCoy: 115 + 2h</t>
-  </si>
-  <si>
-    <t>2019-02-26: min hours (long days): McCoy: 117 + 2h</t>
-  </si>
-  <si>
-    <t>2019-02-13: min hours (long days): McCoy: 119 + 2h</t>
-  </si>
-  <si>
-    <t>2019-02-18: min hours (long days): McCoy: 121 + 2h</t>
-  </si>
-  <si>
-    <t>2019-02-04: min hours (long days): Franklin: 150.5 + 3h</t>
-  </si>
-  <si>
-    <t>2019-02-20: min hours (long days): Pulaski: 113.5 + 2h</t>
-  </si>
-  <si>
-    <t>2019-02-08: min hours (long days): Franklin: 153.5 + 3h</t>
-  </si>
-  <si>
-    <t>2019-02-05: min hours (long days): Franklin: 156.5 + 3h</t>
-  </si>
-  <si>
-    <t>2019-02-07: min hours (long days): Franklin: 159.5 + 3h</t>
-  </si>
-  <si>
-    <t>2019-02-01: min hours (long days): Franklin: 162.5 + 3h</t>
-  </si>
-  <si>
-    <t>2019-02-28: min hours (long days): Pulaski: 115.5 + 2h</t>
-  </si>
-  <si>
-    <t>2019-02-22: min hours (long days): Pulaski: 117.5 + 2h</t>
-  </si>
-  <si>
-    <t>2019-02-21: min hours (long days): Pulaski: 119.5 + 2h</t>
-  </si>
-  <si>
-    <t>2019-02-19: min hours (long days): Pulaski: 126.5 + 7h</t>
+    <t>2019-02-01: ward min presence: Franklin: 105 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-28: ward min presence: Franklin: 110 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-22: ward min presence: Franklin: 115 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-05: ward min presence: Franklin: 120 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-26: ward min presence: Franklin: 125 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-11: ward min presence: Phlox: 125 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-06: ward min presence: Cottle: 127 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-04: ward min presence: Franklin: 130 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-21: ward min presence: Phlox: 130 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-07: ward min presence: Cottle: 132 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-15: ward min presence: Culber: 129 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-25: ward min presence: Culber: 134 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-19: ward min presence: Culber: 139 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-14: ward min presence: Phlox: 135 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-01: ward min presence: Cottle: 137 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-28: ward min presence: Culber: 144 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-22: ward min presence: Culber: 149 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-05: ward min presence: Cottle: 142 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-26: ward min presence: Phlox: 140 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-11: ward min presence: Franklin: 135 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-20: ward min presence: Franklin: 140 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-27: ward min presence: Franklin: 145 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-08: ward min presence: Cottle: 147 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-06: ward min presence: Franklin: 150 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-18: ward min presence: Franklin: 155 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-04: ward min presence: Cottle: 152 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-12: ward min presence: Phlox: 145 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-13: ward min presence: Phlox: 150 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-21: ward min presence: Franklin: 160 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-07: ward min presence: Franklin: 165 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-15: ward min presence: Phlox: 155 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-01: ward min presence: Phlox: 160 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-26: ward min presence: Culber: 154 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-20: ward min presence: Phlox: 165 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-27: ward min presence: Culber: 159 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-12: ward min presence: Cottle: 157 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-13: ward min presence: Culber: 164 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-15: ward min presence: Cottle: 162 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-05: total min presence: Bashir: 145 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-07: total min presence: TheDoctor: 150.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-18: total min presence: Bashir: 150 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-25: total min presence: Pulaski: 150.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-28: total min presence: TheDoctor: 155.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-21: total min presence: Bashir: 155 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-22: total min presence: Pulaski: 155.5 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-19: total min presence: Bashir: 160 + 5h</t>
+  </si>
+  <si>
+    <t>2019-02-05: min hours (long days): Pulaski: 157.5 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-08: min hours (long days): Pulaski: 159.5 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-28: min hours (long days): Pulaski: 161.5 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-18: min hours (long days): McCoy: 153 + 7h</t>
+  </si>
+  <si>
+    <t>2019-02-13: min hours (long days): McCoy: 155 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-12: min hours (long days): McCoy: 157 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-01: min hours (long days): McCoy: 159 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-14: min hours (long days): McCoy: 161 + 2h</t>
+  </si>
+  <si>
+    <t>2019-02-27: min hours (long days): TheDoctor: 162.5 + 7h</t>
   </si>
 </sst>
 </file>
@@ -928,7 +874,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1039,18 +985,35 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="FFDDDD"/>
+        <fgColor rgb="FFAAAA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="FFDDDD"/>
+        <fgColor rgb="FFAAAA"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDD"/>
+        <fgColor rgb="FFAAAA"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFCCCC"/>
+        <bgColor rgb="ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCC"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
@@ -1073,35 +1036,18 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="FFAAAA"/>
+        <fgColor rgb="88FF88"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="FFAAAA"/>
+        <fgColor rgb="88FF88"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAAAA"/>
-        <bgColor rgb="ADD8E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="FF8888"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="FF8888"/>
-        <bgColor rgb="ADD8E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8888"/>
+        <fgColor rgb="88FF88"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
@@ -1124,52 +1070,18 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="FFCCCC"/>
+        <fgColor rgb="FF7777"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
-        <fgColor rgb="FFCCCC"/>
+        <fgColor rgb="FF7777"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCC"/>
-        <bgColor rgb="ADD8E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="88FF88"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="88FF88"/>
-        <bgColor rgb="ADD8E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="88FF88"/>
-        <bgColor rgb="ADD8E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="FF3333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="FF3333"/>
-        <bgColor rgb="ADD8E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3333"/>
+        <fgColor rgb="FF7777"/>
         <bgColor rgb="ADD8E6"/>
       </patternFill>
     </fill>
@@ -1254,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
@@ -1269,138 +1181,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyBorder="true" applyFill="true"/>
@@ -1449,7 +1331,7 @@
   <sheetData>
     <row r="1" ht="15.0" customHeight="true">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1544,10 +1426,10 @@
         <v>37</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s" s="4">
         <v>41</v>
@@ -1565,13 +1447,13 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s" s="6">
         <v>44</v>
-      </c>
-      <c r="K2" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s" s="6">
-        <v>45</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>37</v>
@@ -1580,25 +1462,25 @@
         <v>37</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="Q2" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s" s="3">
-        <v>44</v>
+      <c r="R2" t="s" s="4">
+        <v>42</v>
       </c>
       <c r="S2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="T2" t="s" s="4">
-        <v>47</v>
+      <c r="T2" t="s" s="7">
+        <v>45</v>
       </c>
       <c r="U2" t="s" s="4">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="V2" t="s" s="2">
         <v>40</v>
@@ -1607,22 +1489,22 @@
         <v>40</v>
       </c>
       <c r="X2" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA2" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="Y2" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="Z2" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="AB2" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AC2" t="s" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
@@ -1633,16 +1515,16 @@
         <v>38</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="E3" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s" s="4">
+        <v>42</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>40</v>
@@ -1651,34 +1533,34 @@
         <v>38</v>
       </c>
       <c r="I3" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="L3" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="O3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s" s="3">
-        <v>44</v>
+      <c r="Q3" t="s" s="4">
+        <v>42</v>
       </c>
       <c r="R3" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s" s="2">
         <v>40</v>
@@ -1689,23 +1571,23 @@
       <c r="U3" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="V3" t="s" s="2">
-        <v>40</v>
+      <c r="V3" t="s" s="4">
+        <v>46</v>
       </c>
       <c r="W3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="X3" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="Z3" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="AA3" t="s" s="4">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
         <v>40</v>
@@ -1721,83 +1603,83 @@
       <c r="B4" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="C4" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s" s="3">
-        <v>44</v>
+      <c r="C4" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s" s="4">
+        <v>42</v>
       </c>
       <c r="E4" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="F4" t="s" s="4">
+      <c r="F4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="G4" t="s" s="4">
+      <c r="M4" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="H4" t="s" s="4">
+      <c r="N4" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="I4" t="s" s="4">
+      <c r="O4" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="J4" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="M4" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="O4" t="s" s="6">
+      <c r="P4" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X4" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="Y4" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="P4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q4" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="R4" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="S4" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X4" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="Y4" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB4" t="s" s="6">
-        <v>45</v>
+      <c r="AB4" t="s" s="4">
+        <v>42</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>37</v>
@@ -1811,31 +1693,31 @@
         <v>40</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s" s="5">
         <v>38</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="G5" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s" s="4">
-        <v>39</v>
+      <c r="G5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J5" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s" s="4">
         <v>41</v>
@@ -1853,10 +1735,10 @@
         <v>41</v>
       </c>
       <c r="Q5" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S5" t="s" s="2">
         <v>40</v>
@@ -1864,8 +1746,8 @@
       <c r="T5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="U5" t="s" s="2">
-        <v>40</v>
+      <c r="U5" t="s" s="4">
+        <v>46</v>
       </c>
       <c r="V5" t="s" s="2">
         <v>40</v>
@@ -1874,22 +1756,22 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y5" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="Z5" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="AA5" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC5" t="s" s="6">
         <v>44</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
@@ -1900,10 +1782,10 @@
         <v>41</v>
       </c>
       <c r="C6" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s" s="2">
         <v>40</v>
@@ -1912,19 +1794,19 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="K6" t="s" s="3">
-        <v>44</v>
+      <c r="J6" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="4">
+        <v>42</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>40</v>
@@ -1932,20 +1814,20 @@
       <c r="M6" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="N6" t="s" s="6">
-        <v>45</v>
+      <c r="N6" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="O6" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P6" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="Q6" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="R6" t="s" s="4">
-        <v>39</v>
+      <c r="P6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q6" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s" s="3">
+        <v>43</v>
       </c>
       <c r="S6" t="s" s="2">
         <v>40</v>
@@ -1960,22 +1842,22 @@
         <v>38</v>
       </c>
       <c r="W6" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X6" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="Y6" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="Y6" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AA6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>40</v>
@@ -1989,10 +1871,10 @@
         <v>40</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s" s="4">
         <v>41</v>
@@ -2010,10 +1892,10 @@
         <v>41</v>
       </c>
       <c r="J7" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>40</v>
@@ -2031,43 +1913,43 @@
         <v>40</v>
       </c>
       <c r="Q7" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R7" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="S7" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="S7" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="T7" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="T7" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="U7" t="s" s="4">
+      <c r="U7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W7" t="s" s="4">
         <v>39</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="X7" t="s" s="5">
         <v>38</v>
       </c>
       <c r="Y7" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AA7" t="s" s="5">
+      <c r="AA7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB7" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="AB7" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>40</v>
+      <c r="AC7" t="s" s="4">
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
@@ -2077,86 +1959,86 @@
       <c r="B8" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="C8" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s" s="4">
-        <v>39</v>
+      <c r="C8" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>43</v>
       </c>
       <c r="E8" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>40</v>
+      <c r="F8" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s" s="4">
+        <v>41</v>
       </c>
       <c r="J8" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="M8" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="K8" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="M8" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="N8" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="O8" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="P8" t="s" s="4">
-        <v>41</v>
+      <c r="P8" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="Q8" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="R8" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="S8" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="T8" t="s" s="4">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="R8" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="S8" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="U8" t="s" s="5">
         <v>38</v>
       </c>
       <c r="V8" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="X8" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y8" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AA8" t="s" s="4">
-        <v>47</v>
+      <c r="AA8" t="s" s="2">
+        <v>40</v>
       </c>
       <c r="AB8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AC8" t="s" s="6">
-        <v>45</v>
+      <c r="AC8" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
@@ -2164,34 +2046,34 @@
         <v>35</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="H9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J9" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="K9" t="s" s="4">
-        <v>39</v>
+      <c r="K9" t="s" s="3">
+        <v>43</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>40</v>
@@ -2200,26 +2082,26 @@
         <v>38</v>
       </c>
       <c r="N9" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O9" t="s" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q9" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="R9" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T9" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="R9" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="S9" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="U9" t="s" s="2">
         <v>40</v>
       </c>
@@ -2230,22 +2112,22 @@
         <v>40</v>
       </c>
       <c r="X9" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="Y9" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="Y9" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="Z9" t="s" s="4">
+        <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AB9" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="AC9" t="s" s="4">
-        <v>39</v>
+      <c r="AB9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
@@ -2256,52 +2138,52 @@
         <v>40</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="F10" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s" s="5">
+      <c r="L10" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="J10" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="K10" t="s" s="3">
-        <v>44</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N10" t="s" s="7">
-        <v>46</v>
-      </c>
       <c r="O10" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q10" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R10" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S10" t="s" s="4">
         <v>41</v>
@@ -2319,10 +2201,10 @@
         <v>41</v>
       </c>
       <c r="X10" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y10" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z10" t="s" s="4">
         <v>41</v>
@@ -2339,129 +2221,129 @@
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="n" s="10">
         <v>0.3999999999999999</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="n" s="16">
+        <v>43</v>
+      </c>
+      <c r="E12" t="n" s="12">
         <v>-1.0</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G12" t="n" s="24">
+      <c r="F12" t="n" s="16">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="24">
         <v>-1.0</v>
       </c>
-      <c r="H12" t="n" s="30">
+      <c r="I12" t="n" s="30">
         <v>-0.6000000000000001</v>
       </c>
-      <c r="I12" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
-      <c r="M12" t="n" s="42">
+      <c r="M12" t="n" s="36">
         <v>0.3999999999999999</v>
       </c>
-      <c r="N12" t="n" s="46">
+      <c r="N12" t="n" s="38">
         <v>0.3999999999999999</v>
       </c>
-      <c r="O12" t="n" s="50">
+      <c r="O12" t="n" s="40">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="P12" t="n" s="44">
+        <v>-1.0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" t="n" s="46">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W12" t="n" s="60">
         <v>1.0</v>
       </c>
-      <c r="P12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S12" t="n" s="58">
+      <c r="X12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z12" t="n" s="64">
+        <v>1.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC12" t="n" s="70">
         <v>0.3999999999999999</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U12" t="n" s="66">
-        <v>1.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" t="n" s="76">
-        <v>1.0</v>
-      </c>
-      <c r="AA12" t="n" s="80">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="AB12" t="n" s="86">
-        <v>1.0</v>
-      </c>
-      <c r="AC12" t="n" s="90">
-        <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.0</v>
+      <c r="F13" t="n" s="18">
+        <v>1.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I13" t="n" s="34">
-        <v>-1.0</v>
+      <c r="H13" t="n" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" t="n" s="40">
-        <v>-1.0</v>
+        <v>43</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
       </c>
       <c r="M13" t="n">
         <v>0.0</v>
@@ -2476,81 +2358,81 @@
         <v>0.0</v>
       </c>
       <c r="Q13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.0</v>
+        <v>43</v>
+      </c>
+      <c r="S13" t="n" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="T13" t="n" s="52">
+        <v>1.0</v>
       </c>
       <c r="U13" t="n">
         <v>0.0</v>
       </c>
-      <c r="V13" t="n">
-        <v>0.0</v>
+      <c r="V13" t="n" s="56">
+        <v>1.0</v>
       </c>
       <c r="W13" t="n">
         <v>0.0</v>
       </c>
       <c r="X13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z13" t="n">
         <v>0.0</v>
       </c>
-      <c r="AA13" t="n" s="82">
-        <v>-1.0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0.0</v>
+      <c r="AA13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB13" t="n" s="68">
+        <v>1.4</v>
+      </c>
+      <c r="AC13" t="n" s="72">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="n" s="12">
-        <v>-0.3999999999999999</v>
+        <v>49</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="n" s="18">
-        <v>-1.4</v>
+        <v>43</v>
+      </c>
+      <c r="E14" t="n" s="14">
+        <v>-1.0</v>
       </c>
       <c r="F14" t="n" s="20">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="G14" t="n" s="26">
-        <v>-2.0</v>
-      </c>
-      <c r="H14" t="n" s="32">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="I14" t="n" s="36">
-        <v>-0.3999999999999999</v>
+        <v>-1.0</v>
+      </c>
+      <c r="G14" t="n" s="22">
+        <v>-1.0</v>
+      </c>
+      <c r="H14" t="n" s="28">
+        <v>-1.0</v>
+      </c>
+      <c r="I14" t="n" s="32">
+        <v>-1.0</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.0</v>
+        <v>43</v>
+      </c>
+      <c r="L14" t="n" s="34">
+        <v>-1.0</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
@@ -2558,316 +2440,138 @@
       <c r="N14" t="n">
         <v>0.0</v>
       </c>
-      <c r="O14" t="n">
-        <v>0.0</v>
+      <c r="O14" t="n" s="42">
+        <v>-1.0</v>
       </c>
       <c r="P14" t="n">
         <v>0.0</v>
       </c>
       <c r="Q14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
-      </c>
-      <c r="S14" t="n" s="60">
+        <v>43</v>
+      </c>
+      <c r="S14" t="n" s="50">
         <v>-1.0</v>
       </c>
-      <c r="T14" t="n" s="64">
-        <v>1.4</v>
-      </c>
-      <c r="U14" t="n" s="68">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="V14" t="n" s="70">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="W14" t="n" s="72">
-        <v>0.3999999999999999</v>
+      <c r="T14" t="n" s="54">
+        <v>-1.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="n" s="58">
+        <v>-1.0</v>
+      </c>
+      <c r="W14" t="n" s="62">
+        <v>-1.0</v>
       </c>
       <c r="X14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA14" t="n" s="84">
-        <v>1.0</v>
-      </c>
-      <c r="AB14" t="n" s="88">
+        <v>43</v>
+      </c>
+      <c r="Z14" t="n" s="66">
         <v>-1.0</v>
       </c>
-      <c r="AC14" t="n" s="92">
-        <v>-0.6000000000000001</v>
+      <c r="AA14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC14" t="n" s="74">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="n" s="14">
-        <v>1.0</v>
+        <v>43</v>
+      </c>
+      <c r="B15" t="n" s="79">
+        <v>0.3999999999999999</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I15" t="n" s="38">
+        <v>43</v>
+      </c>
+      <c r="E15" t="n" s="82">
+        <v>-2.0</v>
+      </c>
+      <c r="F15" t="n" s="85">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="G15" t="n" s="88">
         <v>-1.0</v>
       </c>
+      <c r="H15" t="n" s="91">
+        <v>-1.0</v>
+      </c>
+      <c r="I15" t="n" s="94">
+        <v>-1.6</v>
+      </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M15" t="n" s="44">
+        <v>43</v>
+      </c>
+      <c r="L15" t="n" s="97">
         <v>-1.0</v>
       </c>
-      <c r="N15" t="n" s="48">
+      <c r="M15" t="n" s="100">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="N15" t="n" s="103">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="O15" t="n" s="106">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="P15" t="n" s="109">
         <v>-1.0</v>
       </c>
-      <c r="O15" t="n" s="52">
-        <v>-1.0</v>
-      </c>
-      <c r="P15" t="n" s="56">
-        <v>-1.0</v>
-      </c>
       <c r="Q15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R15" t="s">
-        <v>44</v>
-      </c>
-      <c r="S15" t="n" s="62">
-        <v>1.0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W15" t="n" s="74">
-        <v>-1.0</v>
+        <v>43</v>
+      </c>
+      <c r="S15" t="n" s="112">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n" s="76">
+        <v>0.0</v>
+      </c>
+      <c r="U15" t="n" s="76">
+        <v>0.0</v>
+      </c>
+      <c r="V15" t="n" s="76">
+        <v>0.0</v>
+      </c>
+      <c r="W15" t="n" s="76">
+        <v>0.0</v>
       </c>
       <c r="X15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z15" t="n" s="78">
-        <v>-1.0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.0" customHeight="true">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F16" t="n" s="22">
-        <v>-1.0</v>
-      </c>
-      <c r="G16" t="n" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O16" t="n" s="54">
-        <v>-1.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>44</v>
-      </c>
-      <c r="R16" t="s">
-        <v>44</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.0" customHeight="true">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="n" s="97">
-        <v>1.0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="n" s="100">
-        <v>-2.4</v>
-      </c>
-      <c r="F17" t="n" s="103">
-        <v>-1.4</v>
-      </c>
-      <c r="G17" t="n" s="106">
-        <v>-2.0</v>
-      </c>
-      <c r="H17" t="n" s="109">
-        <v>-1.0</v>
-      </c>
-      <c r="I17" t="n" s="112">
-        <v>-2.4</v>
-      </c>
-      <c r="J17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" t="n" s="115">
-        <v>-1.0</v>
-      </c>
-      <c r="M17" t="n" s="118">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="N17" t="n" s="121">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="O17" t="n" s="124">
-        <v>-1.0</v>
-      </c>
-      <c r="P17" t="n" s="127">
-        <v>-1.0</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>44</v>
-      </c>
-      <c r="R17" t="s">
-        <v>44</v>
-      </c>
-      <c r="S17" t="n" s="130">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="T17" t="n" s="133">
+        <v>43</v>
+      </c>
+      <c r="Z15" t="n" s="76">
+        <v>0.0</v>
+      </c>
+      <c r="AA15" t="n" s="76">
+        <v>0.0</v>
+      </c>
+      <c r="AB15" t="n" s="115">
         <v>1.4</v>
       </c>
-      <c r="U17" t="n" s="136">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="V17" t="n" s="139">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="W17" t="n" s="142">
-        <v>-0.6000000000000001</v>
-      </c>
-      <c r="X17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z17" t="n" s="94">
-        <v>0.0</v>
-      </c>
-      <c r="AA17" t="n" s="145">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="AB17" t="n" s="94">
-        <v>0.0</v>
-      </c>
-      <c r="AC17" t="n" s="148">
+      <c r="AC15" t="n" s="118">
         <v>0.3999999999999999</v>
       </c>
     </row>
@@ -2887,91 +2591,85 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>69</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>70</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>71</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>72</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>74</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>75</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>76</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>77</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2">
@@ -2979,7 +2677,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="n">
         <v>40.0</v>
@@ -2988,10 +2686,10 @@
         <v>44.0</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G2" t="n">
         <v>5.0</v>
@@ -3006,10 +2704,10 @@
         <v>7.0</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M2" t="n">
         <v>0.08333333333333348</v>
@@ -3024,45 +2722,39 @@
         <v>176.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.0</v>
+        <v>161.0</v>
       </c>
       <c r="R2" t="n">
-        <v>136.0</v>
+        <v>40.25</v>
       </c>
       <c r="S2" t="n">
-        <v>121.0</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="T2" t="n">
-        <v>40.333333333333336</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="U2" t="n">
-        <v>2.9166666666666665</v>
+        <v>3.0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8333333333333334</v>
+        <v>3.0</v>
       </c>
       <c r="W2" t="n">
         <v>3.0</v>
       </c>
       <c r="X2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1.0</v>
       </c>
-      <c r="AA2" t="n">
-        <v>14.0</v>
-      </c>
       <c r="AB2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3071,7 +2763,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
         <v>40.0</v>
@@ -3080,10 +2772,10 @@
         <v>44.0</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G3" t="n">
         <v>5.0</v>
@@ -3098,16 +2790,16 @@
         <v>8.0</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M3" t="n">
         <v>0.11111111111111116</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.11111111111111116</v>
+        <v>-0.3111111111111111</v>
       </c>
       <c r="O3" t="n">
         <v>160.0</v>
@@ -3116,45 +2808,39 @@
         <v>176.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>160.0</v>
+        <v>165.0</v>
       </c>
       <c r="R3" t="n">
-        <v>176.0</v>
+        <v>41.25</v>
       </c>
       <c r="S3" t="n">
-        <v>170.0</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="U3" t="n">
-        <v>3.888888888888889</v>
+        <v>4.0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.1111111111111112</v>
+        <v>4.0</v>
       </c>
       <c r="W3" t="n">
         <v>4.0</v>
       </c>
       <c r="X3" t="n">
-        <v>4.0</v>
+        <v>0.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA3" t="n">
         <v>1.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD3" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3163,7 +2849,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" t="n">
         <v>40.0</v>
@@ -3172,10 +2858,10 @@
         <v>44.0</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G4" t="n">
         <v>5.0</v>
@@ -3190,16 +2876,16 @@
         <v>7.0</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.4166666666666665</v>
+        <v>-0.22222222222222232</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.2333333333333334</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="O4" t="n">
         <v>160.0</v>
@@ -3208,45 +2894,39 @@
         <v>176.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>120.0</v>
+        <v>161.5</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0</v>
+        <v>40.375</v>
       </c>
       <c r="S4" t="n">
-        <v>126.5</v>
+        <v>2.7222222222222223</v>
       </c>
       <c r="T4" t="n">
-        <v>42.166666666666664</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="U4" t="n">
-        <v>2.9166666666666665</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8333333333333334</v>
+        <v>2.0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="X4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD4" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3255,7 +2935,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
         <v>40.0</v>
@@ -3264,10 +2944,10 @@
         <v>44.0</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G5" t="n">
         <v>5.0</v>
@@ -3282,10 +2962,10 @@
         <v>8.0</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>0.08333333333333348</v>
@@ -3300,45 +2980,39 @@
         <v>176.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.0</v>
+        <v>160.0</v>
       </c>
       <c r="R5" t="n">
-        <v>136.0</v>
+        <v>40.0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.0</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="T5" t="n">
-        <v>43.333333333333336</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="U5" t="n">
-        <v>2.9166666666666665</v>
+        <v>3.0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8333333333333334</v>
+        <v>3.0</v>
       </c>
       <c r="W5" t="n">
         <v>3.0</v>
       </c>
       <c r="X5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD5" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3347,7 +3021,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
         <v>40.0</v>
@@ -3356,10 +3030,10 @@
         <v>44.0</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G6" t="n">
         <v>5.0</v>
@@ -3374,10 +3048,10 @@
         <v>7.0</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>-0.19444444444444464</v>
@@ -3392,45 +3066,39 @@
         <v>176.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>152.0</v>
+        <v>162.5</v>
       </c>
       <c r="R6" t="n">
-        <v>168.0</v>
+        <v>40.625</v>
       </c>
       <c r="S6" t="n">
-        <v>152.5</v>
+        <v>3.6944444444444446</v>
       </c>
       <c r="T6" t="n">
-        <v>40.13157894736842</v>
+        <v>1.0555555555555556</v>
       </c>
       <c r="U6" t="n">
-        <v>3.6944444444444446</v>
+        <v>3.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.0555555555555556</v>
+        <v>4.0</v>
       </c>
       <c r="W6" t="n">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="X6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AD6" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3439,7 +3107,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
         <v>40.0</v>
@@ -3448,10 +3116,10 @@
         <v>44.0</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G7" t="n">
         <v>5.0</v>
@@ -3466,10 +3134,10 @@
         <v>8.0</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M7" t="n">
         <v>0.08333333333333348</v>
@@ -3484,45 +3152,39 @@
         <v>176.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120.0</v>
+        <v>165.0</v>
       </c>
       <c r="R7" t="n">
-        <v>136.0</v>
+        <v>41.25</v>
       </c>
       <c r="S7" t="n">
-        <v>125.0</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="T7" t="n">
-        <v>41.666666666666664</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="U7" t="n">
-        <v>2.9166666666666665</v>
+        <v>3.0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8333333333333334</v>
+        <v>3.0</v>
       </c>
       <c r="W7" t="n">
         <v>3.0</v>
       </c>
       <c r="X7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD7" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3531,7 +3193,7 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="n">
         <v>40.0</v>
@@ -3540,10 +3202,10 @@
         <v>44.0</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G8" t="n">
         <v>5.0</v>
@@ -3558,16 +3220,16 @@
         <v>7.0</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2777777777777777</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2222222222222222</v>
+        <v>-0.2333333333333334</v>
       </c>
       <c r="O8" t="n">
         <v>160.0</v>
@@ -3576,45 +3238,39 @@
         <v>176.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>112.0</v>
+        <v>164.0</v>
       </c>
       <c r="R8" t="n">
-        <v>128.0</v>
+        <v>41.0</v>
       </c>
       <c r="S8" t="n">
-        <v>112.0</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="T8" t="n">
-        <v>40.0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="U8" t="n">
-        <v>2.7222222222222223</v>
+        <v>3.0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7777777777777778</v>
+        <v>3.0</v>
       </c>
       <c r="W8" t="n">
         <v>3.0</v>
       </c>
       <c r="X8" t="n">
-        <v>3.0</v>
+        <v>0.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA8" t="n">
         <v>1.0</v>
       </c>
-      <c r="AA8" t="n">
-        <v>12.0</v>
-      </c>
       <c r="AB8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD8" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3623,7 +3279,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="n">
         <v>40.0</v>
@@ -3632,10 +3288,10 @@
         <v>44.0</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G9" t="n">
         <v>5.0</v>
@@ -3650,13 +3306,13 @@
         <v>8.0</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.38888888888888884</v>
+        <v>0.11111111111111116</v>
       </c>
       <c r="N9" t="n">
         <v>-0.11111111111111116</v>
@@ -3668,45 +3324,39 @@
         <v>176.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>160.0</v>
+        <v>165.0</v>
       </c>
       <c r="R9" t="n">
-        <v>176.0</v>
+        <v>41.25</v>
       </c>
       <c r="S9" t="n">
-        <v>162.5</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="T9" t="n">
-        <v>40.625</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="U9" t="n">
-        <v>3.888888888888889</v>
+        <v>4.0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1111111111111112</v>
+        <v>4.0</v>
       </c>
       <c r="W9" t="n">
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="X9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y9" t="n">
         <v>4.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD9" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3715,7 +3365,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" t="n">
         <v>40.0</v>
@@ -3724,10 +3374,10 @@
         <v>44.0</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G10" t="n">
         <v>5.0</v>
@@ -3742,16 +3392,16 @@
         <v>7.0</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M10" t="n">
-        <v>0.36111111111111116</v>
+        <v>-0.13888888888888884</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.21111111111111114</v>
+        <v>-0.011111111111111183</v>
       </c>
       <c r="O10" t="n">
         <v>160.0</v>
@@ -3760,45 +3410,39 @@
         <v>176.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>88.0</v>
+        <v>162.0</v>
       </c>
       <c r="R10" t="n">
-        <v>104.0</v>
+        <v>40.5</v>
       </c>
       <c r="S10" t="n">
-        <v>92.5</v>
+        <v>2.138888888888889</v>
       </c>
       <c r="T10" t="n">
-        <v>42.04545454545455</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="U10" t="n">
-        <v>2.138888888888889</v>
+        <v>2.0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6111111111111112</v>
+        <v>2.0</v>
       </c>
       <c r="W10" t="n">
-        <v>2.5</v>
+        <v>2.0</v>
       </c>
       <c r="X10" t="n">
-        <v>2.0</v>
+        <v>0.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.0</v>
+        <v>19.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD10" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3818,42 +3462,42 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>
@@ -3862,16 +3506,16 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7777777777777777</v>
+        <v>0.3333333333333335</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -3883,10 +3527,10 @@
         <v>6.0</v>
       </c>
       <c r="K2" t="n">
-        <v>22.8</v>
+        <v>17.2</v>
       </c>
       <c r="L2" t="n">
-        <v>23.68</v>
+        <v>16.72</v>
       </c>
     </row>
   </sheetData>
@@ -3908,39 +3552,39 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -3948,15 +3592,15 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8">
@@ -3964,23 +3608,23 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
@@ -3988,7 +3632,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12">
@@ -3996,7 +3640,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
@@ -4004,7 +3648,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14">
@@ -4012,7 +3656,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
@@ -4020,7 +3664,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
@@ -4028,7 +3672,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
@@ -4036,7 +3680,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
@@ -4044,7 +3688,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
@@ -4052,7 +3696,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
@@ -4060,7 +3704,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
@@ -4068,7 +3712,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
@@ -4076,7 +3720,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23">
@@ -4084,7 +3728,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
@@ -4092,7 +3736,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25">
@@ -4100,7 +3744,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
@@ -4108,7 +3752,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
@@ -4116,7 +3760,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
@@ -4124,7 +3768,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29">
@@ -4132,671 +3776,615 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B60" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B78" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B79" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B89" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B91" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B93" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B94" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B95" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B96" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B97" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B99" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B100" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B101" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B102" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B104" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B105" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>181</v>
-      </c>
-      <c r="B106" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>182</v>
-      </c>
-      <c r="B107" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>183</v>
-      </c>
-      <c r="B108" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>184</v>
-      </c>
-      <c r="B109" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>185</v>
-      </c>
-      <c r="B110" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>186</v>
-      </c>
-      <c r="B111" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>187</v>
-      </c>
-      <c r="B112" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
